--- a/results/BXB.xlsx
+++ b/results/BXB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6103,6 +6103,2132 @@
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>48</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>0.7676036953926086</v>
+      </c>
+      <c r="E116" t="n">
+        <v>25.15143940719289</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>32.50518852478851</v>
+      </c>
+      <c r="H116" t="n">
+        <v>35</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-7.017533652335215</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>44</v>
+      </c>
+      <c r="M116" t="n">
+        <v>22.42088270823692</v>
+      </c>
+      <c r="N116" t="n">
+        <v>7.353749117595619</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-2.730556698955972</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-10.08430581655159</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>231</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>1.343361735343933</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-26.20886534530547</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.315299321272838e-07</v>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-26.20886534530547</v>
+      </c>
+      <c r="J117" t="n">
+        <v>52</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>9</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-12.50000998319717</v>
+      </c>
+      <c r="N117" t="n">
+        <v>26.20886577683541</v>
+      </c>
+      <c r="O117" t="n">
+        <v>13.7088553621083</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-12.5000104147271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>296</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1.014959096908569</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.91876669437761</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>22.21204898317303</v>
+      </c>
+      <c r="H118" t="n">
+        <v>52</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-4.074359966184442</v>
+      </c>
+      <c r="J118" t="n">
+        <v>13</v>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>9</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-4.07435013050124</v>
+      </c>
+      <c r="N118" t="n">
+        <v>10.29328228879542</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-15.99311682487885</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-26.28639911367427</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>326</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>1.19562828540802</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.9354058668207696</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3.744811310630002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>22</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-18.99509125785658</v>
+      </c>
+      <c r="J119" t="n">
+        <v>40</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>4.680217177450771</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>378</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>1.184444308280945</v>
+      </c>
+      <c r="E120" t="n">
+        <v>30.54017884146472</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>30.54017884146472</v>
+      </c>
+      <c r="H120" t="n">
+        <v>50</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-6.784648857431518</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>731</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>2.348884582519531</v>
+      </c>
+      <c r="E121" t="n">
+        <v>37.51399724886561</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>51.16652747440254</v>
+      </c>
+      <c r="H121" t="n">
+        <v>45</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-3.435155830715929</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>32</v>
+      </c>
+      <c r="M121" t="n">
+        <v>13.62285544688882</v>
+      </c>
+      <c r="N121" t="n">
+        <v>13.65253022553693</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-23.89114180197679</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-37.54367202751372</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>733</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>2.371296882629395</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44.24999547554077</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>49.73777782894884</v>
+      </c>
+      <c r="H122" t="n">
+        <v>43</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-3.780705651870039</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>30</v>
+      </c>
+      <c r="M122" t="n">
+        <v>12.54894962165466</v>
+      </c>
+      <c r="N122" t="n">
+        <v>5.487782353408065</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-31.70104585388611</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-37.18882820729417</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>738</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="n">
+        <v>2.510258197784424</v>
+      </c>
+      <c r="E123" t="n">
+        <v>44.41093208656724</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>44.9663659079942</v>
+      </c>
+      <c r="H123" t="n">
+        <v>52</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-9.107153623519396</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>25</v>
+      </c>
+      <c r="M123" t="n">
+        <v>6.318534729455038</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.5554338214269592</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-38.0923973571122</v>
+      </c>
+      <c r="P123" t="n">
+        <v>-38.64783117853916</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>754</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>2.824515819549561</v>
+      </c>
+      <c r="E124" t="n">
+        <v>36.02892677716441</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>42.36354873080582</v>
+      </c>
+      <c r="H124" t="n">
+        <v>44</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-6.645068344382489</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>9</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-5.510540414107413</v>
+      </c>
+      <c r="N124" t="n">
+        <v>6.33462195364141</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-41.53946719127183</v>
+      </c>
+      <c r="P124" t="n">
+        <v>-47.87408914491323</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>776</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>3.457776308059692</v>
+      </c>
+      <c r="E125" t="n">
+        <v>24.02685933531523</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>25.40801741438535</v>
+      </c>
+      <c r="H125" t="n">
+        <v>46</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-9.677454318276887</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>4</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-8.602172038614173</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.381158079070126</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-32.6290313739294</v>
+      </c>
+      <c r="P125" t="n">
+        <v>-34.01018945299953</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>793</v>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="n">
+        <v>3.801693916320801</v>
+      </c>
+      <c r="E126" t="n">
+        <v>28.76063782418318</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>31.64988051432828</v>
+      </c>
+      <c r="H126" t="n">
+        <v>43</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-6.738390586590078</v>
+      </c>
+      <c r="J126" t="n">
+        <v>8</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>2.8892426901451</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>815</v>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="n">
+        <v>4.143502712249756</v>
+      </c>
+      <c r="E127" t="n">
+        <v>23.11798475295918</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>34.08775397216468</v>
+      </c>
+      <c r="H127" t="n">
+        <v>39</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-7.563634649997478</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>44</v>
+      </c>
+      <c r="M127" t="n">
+        <v>24.63507049555472</v>
+      </c>
+      <c r="N127" t="n">
+        <v>10.9697692192055</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.517085742595544</v>
+      </c>
+      <c r="P127" t="n">
+        <v>-9.452683476609955</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>846</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>5.053043365478516</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29.29964140794564</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>38.30700334425126</v>
+      </c>
+      <c r="H128" t="n">
+        <v>49</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-2.679445001844085</v>
+      </c>
+      <c r="J128" t="n">
+        <v>13</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>13</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2.200934226667925</v>
+      </c>
+      <c r="N128" t="n">
+        <v>9.007361936305614</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-27.09870718127772</v>
+      </c>
+      <c r="P128" t="n">
+        <v>-36.10606911758333</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>871</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>5.778359413146973</v>
+      </c>
+      <c r="E129" t="n">
+        <v>14.34000616268329</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>20.9463163640887</v>
+      </c>
+      <c r="H129" t="n">
+        <v>24</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-10.22192629657919</v>
+      </c>
+      <c r="J129" t="n">
+        <v>46</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>37</v>
+      </c>
+      <c r="M129" t="n">
+        <v>9.427626348623356</v>
+      </c>
+      <c r="N129" t="n">
+        <v>6.606310201405412</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-4.91237981405993</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-11.51869001546534</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>876</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>6.264392852783203</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13.41271595623603</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>18.24386782520656</v>
+      </c>
+      <c r="H130" t="n">
+        <v>51</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-17.18750891431077</v>
+      </c>
+      <c r="J130" t="n">
+        <v>41</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>32</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.9375001902966374</v>
+      </c>
+      <c r="N130" t="n">
+        <v>4.83115186897053</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-12.4752157659394</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-17.30636763490993</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>3.67791748046875</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-20.46934897691631</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24.94039825885327</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-22.29414370765255</v>
+      </c>
+      <c r="J131" t="n">
+        <v>52</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>14</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-2.674859771984268</v>
+      </c>
+      <c r="N131" t="n">
+        <v>45.40974723576958</v>
+      </c>
+      <c r="O131" t="n">
+        <v>17.79448920493205</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-27.61525803083753</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>4.271289348602295</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-15.7793102416589</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7.583550836548659</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-33.08912912542834</v>
+      </c>
+      <c r="J132" t="n">
+        <v>46</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>7</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-16.19536741269341</v>
+      </c>
+      <c r="N132" t="n">
+        <v>23.36286107820756</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.4160571710345149</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-23.77891824924207</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>4.002276420593262</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-4.116791062291696</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>8.30024822884117</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-28.5917163038185</v>
+      </c>
+      <c r="J133" t="n">
+        <v>23</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>13</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-14.05852253596941</v>
+      </c>
+      <c r="N133" t="n">
+        <v>12.41703929113287</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-9.941731473677713</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-22.35877076481058</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>3.734568357467651</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.11406790703346</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>16.37415203629821</v>
+      </c>
+      <c r="H134" t="n">
+        <v>29</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-9.556166493424314</v>
+      </c>
+      <c r="J134" t="n">
+        <v>39</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>33</v>
+      </c>
+      <c r="M134" t="n">
+        <v>12.6251898072736</v>
+      </c>
+      <c r="N134" t="n">
+        <v>6.260084129264747</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2.511121900240138</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-3.74896222902461</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>4.070505142211914</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.434995363421967</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>18.02503745454754</v>
+      </c>
+      <c r="H135" t="n">
+        <v>48</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-9.176209906365363</v>
+      </c>
+      <c r="J135" t="n">
+        <v>34</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>32</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-7.371778351421219</v>
+      </c>
+      <c r="N135" t="n">
+        <v>10.59004209112557</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-14.80677371484319</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-25.39681580596876</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>4.457189083099365</v>
+      </c>
+      <c r="E136" t="n">
+        <v>22.31876597168219</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>26.45307103741026</v>
+      </c>
+      <c r="H136" t="n">
+        <v>52</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-17.05563804480998</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>8</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-15.40775015263598</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4.134305065728068</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-37.72651612431817</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-41.86082119004624</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>4.391890048980713</v>
+      </c>
+      <c r="E137" t="n">
+        <v>34.61425003591025</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>38.89500051720609</v>
+      </c>
+      <c r="H137" t="n">
+        <v>40</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-2.844974926161191</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>28</v>
+      </c>
+      <c r="M137" t="n">
+        <v>21.24379007739135</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4.280750481295833</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-13.3704599585189</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-17.65121043981474</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1206</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>5.029120445251465</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.47249647524422</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>31.50270965721485</v>
+      </c>
+      <c r="H138" t="n">
+        <v>46</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-1.118019310768377</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>10</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5.881217389490492</v>
+      </c>
+      <c r="N138" t="n">
+        <v>9.03021318197063</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-16.59127908575373</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-25.62149226772436</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1228</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>5.966675758361816</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10.47411713201907</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>18.85617982869401</v>
+      </c>
+      <c r="H139" t="n">
+        <v>44</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-13.31203867389179</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>6</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-6.389773344992649</v>
+      </c>
+      <c r="N139" t="n">
+        <v>8.382062696674941</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-16.86389047701172</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-25.24595317368666</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>6.436028957366943</v>
+      </c>
+      <c r="E140" t="n">
+        <v>18.64250791508336</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>18.86933047769651</v>
+      </c>
+      <c r="H140" t="n">
+        <v>51</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-7.056222835527236</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>7</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-4.299850096289407</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.2268225626131475</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-22.94235801137277</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-23.16918057398592</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>7.037792205810547</v>
+      </c>
+      <c r="E141" t="n">
+        <v>17.10082849345363</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>25.50265866531606</v>
+      </c>
+      <c r="H141" t="n">
+        <v>47</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-10.63394673055959</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>39</v>
+      </c>
+      <c r="M141" t="n">
+        <v>7.979378453749902</v>
+      </c>
+      <c r="N141" t="n">
+        <v>8.401830171862429</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-9.121450039703728</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-17.52328021156616</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>7.07375955581665</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.6026191612679</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>24.86452585697086</v>
+      </c>
+      <c r="H142" t="n">
+        <v>29</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-6.243559206845016</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>21</v>
+      </c>
+      <c r="M142" t="n">
+        <v>7.43034479383507</v>
+      </c>
+      <c r="N142" t="n">
+        <v>20.26190669570296</v>
+      </c>
+      <c r="O142" t="n">
+        <v>2.827725632567169</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-17.43418106313579</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>7.409561634063721</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.473834731848822</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>19.20565299068096</v>
+      </c>
+      <c r="H143" t="n">
+        <v>18</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-5.714285177382491</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>10</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.561590766238987</v>
+      </c>
+      <c r="N143" t="n">
+        <v>9.731818258832135</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-6.912243965609834</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-16.64406222444197</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>7.708866596221924</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.390377978389481</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>14.57736645697629</v>
+      </c>
+      <c r="H144" t="n">
+        <v>13</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-9.16942610854551</v>
+      </c>
+      <c r="J144" t="n">
+        <v>36</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>5</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-1.420472311388898</v>
+      </c>
+      <c r="N144" t="n">
+        <v>8.186988478586812</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-7.810850289778379</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-15.99783876836519</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1356</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>8.366422653198242</v>
+      </c>
+      <c r="E145" t="n">
+        <v>13.73882772149922</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>23.57182146386959</v>
+      </c>
+      <c r="H145" t="n">
+        <v>31</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-9.946221451822721</v>
+      </c>
+      <c r="J145" t="n">
+        <v>7</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="n">
+        <v>9.297843455304616</v>
+      </c>
+      <c r="N145" t="n">
+        <v>9.83299374237037</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-4.440984266194604</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-14.27397800856497</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>9.894973754882812</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-19.48706835400484</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4.482751748797474</v>
+      </c>
+      <c r="H146" t="n">
+        <v>12</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-29.50211464454577</v>
+      </c>
+      <c r="J146" t="n">
+        <v>44</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>4</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-1.609174265239939</v>
+      </c>
+      <c r="N146" t="n">
+        <v>23.96982010280232</v>
+      </c>
+      <c r="O146" t="n">
+        <v>17.8778940887649</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-6.091926014037413</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>8.177204132080078</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-10.97631676544886</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2.097238053660677</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-14.96663506369867</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>8</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-12.01144217334817</v>
+      </c>
+      <c r="N147" t="n">
+        <v>13.07355481910954</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-1.03512540789931</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-14.10868022700885</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1458</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>8.07945728302002</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.200532936729256</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>16.98157320671213</v>
+      </c>
+      <c r="H148" t="n">
+        <v>40</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-14.57852999418482</v>
+      </c>
+      <c r="J148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>4</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-2.156871077116476</v>
+      </c>
+      <c r="N148" t="n">
+        <v>12.78104026998287</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-6.357404013845732</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-19.1384442838286</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1521</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>9.453873634338381</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.67077116604735</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>20.42682052196022</v>
+      </c>
+      <c r="H149" t="n">
+        <v>52</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-6.594830329012711</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>33</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2.569205107784071</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4.756049355912868</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-13.10156605826328</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-17.85761541417614</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>10.37946224212646</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-8.403684240266712</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>9.687758078544999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>40</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-25.77967612569471</v>
+      </c>
+      <c r="J150" t="n">
+        <v>44</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>21</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-6.57740437380641</v>
+      </c>
+      <c r="N150" t="n">
+        <v>18.09144231881171</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.826279866460301</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-16.26516245235141</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>10.73176097869873</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-15.71639091813814</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6.086964260529744</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-28.21615662323861</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>19</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-14.05144926267657</v>
+      </c>
+      <c r="N151" t="n">
+        <v>21.80335517866789</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.664941655461574</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-20.13841352320631</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>9.904792785644531</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2.12173625698158</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12.88888410258057</v>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-16.73961836439187</v>
+      </c>
+      <c r="J152" t="n">
+        <v>34</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>20</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-9.726333554401686</v>
+      </c>
+      <c r="N152" t="n">
+        <v>15.01062035956215</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-7.604597297420106</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-22.61521765698226</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>10.87326145172119</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.874057323105036</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>8.289918798082045</v>
+      </c>
+      <c r="H153" t="n">
+        <v>52</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-24.15552306765888</v>
+      </c>
+      <c r="J153" t="n">
+        <v>24</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>10</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-17.76690332388687</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.4158614749770093</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-25.6409606469919</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-26.05682212196891</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>10.1739444732666</v>
+      </c>
+      <c r="E154" t="n">
+        <v>32.33863140708317</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>33.98371692071146</v>
+      </c>
+      <c r="H154" t="n">
+        <v>48</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-9.68889043994098</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>19</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2.89519630106577</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.645085513628288</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-29.4434351060174</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-31.08852061964569</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>11.89977741241455</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.05939009703697</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>26.05397502681499</v>
+      </c>
+      <c r="H155" t="n">
+        <v>52</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-8.018503781351676</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>39</v>
+      </c>
+      <c r="M155" t="n">
+        <v>4.490030751362758</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4.994584929778011</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-16.56935934567421</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-21.56394427545223</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>12.72948551177978</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19.46925017716361</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22.25285936813513</v>
+      </c>
+      <c r="H156" t="n">
+        <v>51</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-5.878001955340471</v>
+      </c>
+      <c r="J156" t="n">
+        <v>33</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>33</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-2.320631371399374</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2.783609190971521</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-21.78988154856298</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-24.5734907395345</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1781</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>14.41523170471191</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.14933181682922</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>35.00968389095147</v>
+      </c>
+      <c r="H157" t="n">
+        <v>47</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-8.187264861673201</v>
+      </c>
+      <c r="J157" t="n">
+        <v>21</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>20</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-6.393524354459201</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4.86035207412225</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-36.54285617128842</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-41.40320824541067</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>18.23585319519043</v>
+      </c>
+      <c r="E158" t="n">
+        <v>35.99582630771211</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>45.85382763457836</v>
+      </c>
+      <c r="H158" t="n">
+        <v>49</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-5.016007335985726</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>45</v>
+      </c>
+      <c r="M158" t="n">
+        <v>25.8144918034913</v>
+      </c>
+      <c r="N158" t="n">
+        <v>9.858001326866244</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-10.18133450422081</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-20.03933583108706</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6115,7 +8241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6328,40 +8454,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>76.74418604651163</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.55099172235402</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.34000616268329</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.04251388957687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.43016192668246</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12.16838122992839</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.879170204328446</v>
+      </c>
+      <c r="J4" t="n">
+        <v>93.02325581395348</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-12.51364452720399</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>13.52461460986916</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>13.63128223050286</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>25.00670724358564</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>26.1029906556751</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-12.54010778113495</v>
       </c>
     </row>

--- a/results/BXB.xlsx
+++ b/results/BXB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,47 +883,47 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>4.490183830261231</v>
+        <v>5.124055862426758</v>
       </c>
       <c r="E10" t="n">
-        <v>-36.20280912490903</v>
+        <v>-15.6395113161046</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.666646162108767</v>
+        <v>3.269536115498343</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>-40.48130981044466</v>
+        <v>-29.57186994517496</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="n">
-        <v>-17.50000371684128</v>
+        <v>-20.42399518180103</v>
       </c>
       <c r="N10" t="n">
-        <v>42.8694552870178</v>
+        <v>18.90904743160294</v>
       </c>
       <c r="O10" t="n">
-        <v>18.70280540806775</v>
+        <v>-4.784483865696426</v>
       </c>
       <c r="P10" t="n">
-        <v>-24.16664987895005</v>
+        <v>-23.69353129729937</v>
       </c>
     </row>
     <row r="11">
@@ -933,47 +933,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>4.322678565979004</v>
+        <v>4.490183830261231</v>
       </c>
       <c r="E11" t="n">
-        <v>-52.48931807546876</v>
+        <v>-36.20280912490903</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.459141909958146</v>
+        <v>6.666646162108767</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>-62.76670047049281</v>
+        <v>-40.48130981044466</v>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M11" t="n">
-        <v>-13.42409099122215</v>
+        <v>-17.50000371684128</v>
       </c>
       <c r="N11" t="n">
-        <v>53.94845998542691</v>
+        <v>42.8694552870178</v>
       </c>
       <c r="O11" t="n">
-        <v>39.06522708424662</v>
+        <v>18.70280540806775</v>
       </c>
       <c r="P11" t="n">
-        <v>-14.88323290118029</v>
+        <v>-24.16664987895005</v>
       </c>
     </row>
     <row r="12">
@@ -983,47 +983,47 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>696</v>
+        <v>642</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2.263923406600952</v>
+        <v>4.322678565979004</v>
       </c>
       <c r="E12" t="n">
-        <v>12.22514720791762</v>
+        <v>-52.48931807546876</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18.29130587075266</v>
+        <v>1.459141909958146</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-15.28042931117036</v>
+        <v>-62.76670047049281</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
-        <v>-11.09733862575894</v>
+        <v>-13.42409099122215</v>
       </c>
       <c r="N12" t="n">
-        <v>6.066158662835045</v>
+        <v>53.94845998542691</v>
       </c>
       <c r="O12" t="n">
-        <v>-23.32248583367656</v>
+        <v>39.06522708424662</v>
       </c>
       <c r="P12" t="n">
-        <v>-29.38864449651161</v>
+        <v>-14.88323290118029</v>
       </c>
     </row>
     <row r="13">
@@ -1033,47 +1033,47 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>2.371296882629395</v>
+        <v>2.263923406600952</v>
       </c>
       <c r="E13" t="n">
-        <v>44.24999547554077</v>
+        <v>12.22514720791762</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>49.73777782894884</v>
+        <v>18.29130587075266</v>
       </c>
       <c r="H13" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.780705651870039</v>
+        <v>-15.28042931117036</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M13" t="n">
-        <v>12.54894962165466</v>
+        <v>-11.09733862575894</v>
       </c>
       <c r="N13" t="n">
-        <v>5.487782353408065</v>
+        <v>6.066158662835045</v>
       </c>
       <c r="O13" t="n">
-        <v>-31.70104585388611</v>
+        <v>-23.32248583367656</v>
       </c>
       <c r="P13" t="n">
-        <v>-37.18882820729417</v>
+        <v>-29.38864449651161</v>
       </c>
     </row>
     <row r="14">
@@ -1083,47 +1083,47 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>2.510258197784424</v>
+        <v>2.371296882629395</v>
       </c>
       <c r="E14" t="n">
-        <v>44.41093208656724</v>
+        <v>44.24999547554077</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>44.9663659079942</v>
+        <v>49.73777782894884</v>
       </c>
       <c r="H14" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.107153623519396</v>
+        <v>-3.780705651870039</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M14" t="n">
-        <v>6.318534729455038</v>
+        <v>12.54894962165466</v>
       </c>
       <c r="N14" t="n">
-        <v>0.5554338214269592</v>
+        <v>5.487782353408065</v>
       </c>
       <c r="O14" t="n">
-        <v>-38.0923973571122</v>
+        <v>-31.70104585388611</v>
       </c>
       <c r="P14" t="n">
-        <v>-38.64783117853916</v>
+        <v>-37.18882820729417</v>
       </c>
     </row>
     <row r="15">
@@ -1133,47 +1133,47 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>2.700913429260254</v>
+        <v>2.510258197784424</v>
       </c>
       <c r="E15" t="n">
-        <v>42.9513140895155</v>
+        <v>44.41093208656724</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>48.87855758764847</v>
+        <v>44.9663659079942</v>
       </c>
       <c r="H15" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.610166376340511</v>
+        <v>-9.107153623519396</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.186402166862692</v>
+        <v>6.318534729455038</v>
       </c>
       <c r="N15" t="n">
-        <v>5.927243498132974</v>
+        <v>0.5554338214269592</v>
       </c>
       <c r="O15" t="n">
-        <v>-44.13771625637819</v>
+        <v>-38.0923973571122</v>
       </c>
       <c r="P15" t="n">
-        <v>-50.06495975451116</v>
+        <v>-38.64783117853916</v>
       </c>
     </row>
     <row r="16">
@@ -1183,47 +1183,47 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>3.290464162826538</v>
+        <v>2.700913429260254</v>
       </c>
       <c r="E16" t="n">
-        <v>23.07646715247442</v>
+        <v>42.9513140895155</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>31.78471182123573</v>
+        <v>48.87855758764847</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.084771300587589</v>
+        <v>-6.610166376340511</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.954813517397428</v>
+        <v>-1.186402166862692</v>
       </c>
       <c r="N16" t="n">
-        <v>8.70824466876131</v>
+        <v>5.927243498132974</v>
       </c>
       <c r="O16" t="n">
-        <v>-27.03128066987185</v>
+        <v>-44.13771625637819</v>
       </c>
       <c r="P16" t="n">
-        <v>-35.73952533863316</v>
+        <v>-50.06495975451116</v>
       </c>
     </row>
     <row r="17">
@@ -1233,47 +1233,47 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>3.457776308059692</v>
+        <v>3.290464162826538</v>
       </c>
       <c r="E17" t="n">
-        <v>24.02685933531523</v>
+        <v>23.07646715247442</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>25.40801741438535</v>
+        <v>31.78471182123573</v>
       </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.677454318276887</v>
+        <v>-5.084771300587589</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>-8.602172038614173</v>
+        <v>-3.954813517397428</v>
       </c>
       <c r="N17" t="n">
-        <v>1.381158079070126</v>
+        <v>8.70824466876131</v>
       </c>
       <c r="O17" t="n">
-        <v>-32.6290313739294</v>
+        <v>-27.03128066987185</v>
       </c>
       <c r="P17" t="n">
-        <v>-34.01018945299953</v>
+        <v>-35.73952533863316</v>
       </c>
     </row>
     <row r="18">
@@ -1283,40 +1283,48 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>3.494956970214844</v>
+        <v>3.457776308059692</v>
       </c>
       <c r="E18" t="n">
-        <v>36.37196266680636</v>
+        <v>24.02685933531523</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>43.20420940831085</v>
+        <v>25.40801741438535</v>
       </c>
       <c r="H18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.925527595698053</v>
+        <v>-9.677454318276887</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-8.602172038614173</v>
+      </c>
       <c r="N18" t="n">
-        <v>6.832246741504484</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+        <v>1.381158079070126</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-32.6290313739294</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-34.01018945299953</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1325,29 +1333,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>3.860991239547729</v>
+        <v>3.494956970214844</v>
       </c>
       <c r="E19" t="n">
-        <v>34.00515531174766</v>
+        <v>36.37196266680636</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>37.01092814637237</v>
+        <v>43.20420940831085</v>
       </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.170707692468397</v>
+        <v>-2.925527595698053</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1355,7 +1363,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>3.005772834624707</v>
+        <v>6.832246741504484</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -1367,48 +1375,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>4.143502712249756</v>
+        <v>3.860991239547729</v>
       </c>
       <c r="E20" t="n">
-        <v>23.11798475295918</v>
+        <v>34.00515531174766</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>34.08775397216468</v>
+        <v>37.01092814637237</v>
       </c>
       <c r="H20" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.563634649997478</v>
+        <v>-8.170707692468397</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>24.63507049555472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>10.9697692192055</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.517085742595544</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-9.452683476609955</v>
-      </c>
+        <v>3.005772834624707</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1417,47 +1417,47 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>4.231263637542725</v>
+        <v>4.143502712249756</v>
       </c>
       <c r="E21" t="n">
-        <v>47.47183303106979</v>
+        <v>23.11798475295918</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>56.26231492333024</v>
+        <v>34.08775397216468</v>
       </c>
       <c r="H21" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.480863555768591</v>
+        <v>-7.563634649997478</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M21" t="n">
-        <v>22.05000606856088</v>
+        <v>24.63507049555472</v>
       </c>
       <c r="N21" t="n">
-        <v>8.790481892260445</v>
+        <v>10.9697692192055</v>
       </c>
       <c r="O21" t="n">
-        <v>-25.42182696250892</v>
+        <v>1.517085742595544</v>
       </c>
       <c r="P21" t="n">
-        <v>-34.21230885476936</v>
+        <v>-9.452683476609955</v>
       </c>
     </row>
     <row r="22">
@@ -1467,47 +1467,47 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>5.053043365478516</v>
+        <v>4.231263637542725</v>
       </c>
       <c r="E22" t="n">
-        <v>29.29964140794564</v>
+        <v>47.47183303106979</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>38.30700334425126</v>
+        <v>56.26231492333024</v>
       </c>
       <c r="H22" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.679445001844085</v>
+        <v>-9.480863555768591</v>
       </c>
       <c r="J22" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M22" t="n">
-        <v>2.200934226667925</v>
+        <v>22.05000606856088</v>
       </c>
       <c r="N22" t="n">
-        <v>9.007361936305614</v>
+        <v>8.790481892260445</v>
       </c>
       <c r="O22" t="n">
-        <v>-27.09870718127772</v>
+        <v>-25.42182696250892</v>
       </c>
       <c r="P22" t="n">
-        <v>-36.10606911758333</v>
+        <v>-34.21230885476936</v>
       </c>
     </row>
     <row r="23">
@@ -1517,47 +1517,47 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>5.265801906585693</v>
+        <v>5.053043365478516</v>
       </c>
       <c r="E23" t="n">
-        <v>23.79661776985213</v>
+        <v>29.29964140794564</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>32.71887132211295</v>
+        <v>38.30700334425126</v>
       </c>
       <c r="H23" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.611567719041774</v>
+        <v>-2.679445001844085</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.928374481026175</v>
+        <v>2.200934226667925</v>
       </c>
       <c r="N23" t="n">
-        <v>8.922253552260827</v>
+        <v>9.007361936305614</v>
       </c>
       <c r="O23" t="n">
-        <v>-25.7249922508783</v>
+        <v>-27.09870718127772</v>
       </c>
       <c r="P23" t="n">
-        <v>-34.64724580313913</v>
+        <v>-36.10606911758333</v>
       </c>
     </row>
     <row r="24">
@@ -1567,47 +1567,47 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>5.560765743255615</v>
+        <v>5.265801906585693</v>
       </c>
       <c r="E24" t="n">
-        <v>18.55011558707507</v>
+        <v>23.79661776985213</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>25.6789654366417</v>
+        <v>32.71887132211295</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I24" t="n">
-        <v>-7.565218919771565</v>
+        <v>-6.611567719041774</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>13.70954720342219</v>
+        <v>-1.928374481026175</v>
       </c>
       <c r="N24" t="n">
-        <v>7.128849849566638</v>
+        <v>8.922253552260827</v>
       </c>
       <c r="O24" t="n">
-        <v>-4.840568383652876</v>
+        <v>-25.7249922508783</v>
       </c>
       <c r="P24" t="n">
-        <v>-11.96941823321951</v>
+        <v>-34.64724580313913</v>
       </c>
     </row>
     <row r="25">
@@ -1617,47 +1617,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>6.239922046661377</v>
+        <v>5.560765743255615</v>
       </c>
       <c r="E25" t="n">
-        <v>17.35583615089792</v>
+        <v>18.55011558707507</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>17.99191098478932</v>
+        <v>25.6789654366417</v>
       </c>
       <c r="H25" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I25" t="n">
-        <v>-16.86274709859103</v>
+        <v>-7.565218919771565</v>
       </c>
       <c r="J25" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.333341993945468</v>
+        <v>13.70954720342219</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6360748338913957</v>
+        <v>7.128849849566638</v>
       </c>
       <c r="O25" t="n">
-        <v>-16.02249415695245</v>
+        <v>-4.840568383652876</v>
       </c>
       <c r="P25" t="n">
-        <v>-16.65856899084385</v>
+        <v>-11.96941823321951</v>
       </c>
     </row>
     <row r="26">
@@ -1667,47 +1667,47 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>6.533566951751709</v>
+        <v>6.239922046661377</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.7357472691892</v>
+        <v>17.35583615089792</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>13.37238080816947</v>
+        <v>17.99191098478932</v>
       </c>
       <c r="H26" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I26" t="n">
-        <v>-23.53254357933568</v>
+        <v>-16.86274709859103</v>
       </c>
       <c r="J26" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.220987947422993</v>
+        <v>1.333341993945468</v>
       </c>
       <c r="N26" t="n">
-        <v>33.10812807735867</v>
+        <v>0.6360748338913957</v>
       </c>
       <c r="O26" t="n">
-        <v>16.51475932176621</v>
+        <v>-16.02249415695245</v>
       </c>
       <c r="P26" t="n">
-        <v>-16.59336875559246</v>
+        <v>-16.65856899084385</v>
       </c>
     </row>
     <row r="27">
@@ -1717,47 +1717,47 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>6.655917644500732</v>
+        <v>6.533566951751709</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.44671354047302</v>
+        <v>-19.7357472691892</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>11.2883422020208</v>
+        <v>13.37238080816947</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I27" t="n">
-        <v>-32.09400416613354</v>
+        <v>-23.53254357933568</v>
       </c>
       <c r="J27" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M27" t="n">
-        <v>-5.000003223848801</v>
+        <v>-3.220987947422993</v>
       </c>
       <c r="N27" t="n">
-        <v>33.73505574249382</v>
+        <v>33.10812807735867</v>
       </c>
       <c r="O27" t="n">
-        <v>17.44671031662422</v>
+        <v>16.51475932176621</v>
       </c>
       <c r="P27" t="n">
-        <v>-16.2883454258696</v>
+        <v>-16.59336875559246</v>
       </c>
     </row>
     <row r="28">
@@ -1767,29 +1767,29 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>7.322912693023682</v>
+        <v>6.655917644500732</v>
       </c>
       <c r="E28" t="n">
-        <v>-43.2929804344668</v>
+        <v>-22.44671354047302</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.151832821294338</v>
+        <v>11.2883422020208</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I28" t="n">
-        <v>-51.67225417823851</v>
+        <v>-32.09400416613354</v>
       </c>
       <c r="J28" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -1798,16 +1798,16 @@
         <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>-16.66665689929995</v>
+        <v>-5.000003223848801</v>
       </c>
       <c r="N28" t="n">
-        <v>44.44481325576113</v>
+        <v>33.73505574249382</v>
       </c>
       <c r="O28" t="n">
-        <v>26.62632353516685</v>
+        <v>17.44671031662422</v>
       </c>
       <c r="P28" t="n">
-        <v>-17.81848972059429</v>
+        <v>-16.2883454258696</v>
       </c>
     </row>
     <row r="29">
@@ -1817,47 +1817,47 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>4.398471832275391</v>
+        <v>7.322912693023682</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.43569177985366</v>
+        <v>-43.2929804344668</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.180840944370094</v>
+        <v>1.151832821294338</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-51.97087292531166</v>
+        <v>-51.67225417823851</v>
       </c>
       <c r="J29" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>-17.01151983507843</v>
+        <v>-16.66665689929995</v>
       </c>
       <c r="N29" t="n">
-        <v>30.61653272422375</v>
+        <v>44.44481325576113</v>
       </c>
       <c r="O29" t="n">
-        <v>9.424171944775225</v>
+        <v>26.62632353516685</v>
       </c>
       <c r="P29" t="n">
-        <v>-21.19236077944852</v>
+        <v>-17.81848972059429</v>
       </c>
     </row>
     <row r="30">
@@ -1867,47 +1867,47 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>4.349363327026367</v>
+        <v>4.398471832275391</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.38833536009654</v>
+        <v>-26.43569177985366</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5.652354200341113</v>
+        <v>4.180840944370094</v>
       </c>
       <c r="H30" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>-51.42857777503137</v>
+        <v>-51.97087292531166</v>
       </c>
       <c r="J30" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>-25.00000548168919</v>
+        <v>-17.01151983507843</v>
       </c>
       <c r="N30" t="n">
-        <v>17.04068956043765</v>
+        <v>30.61653272422375</v>
       </c>
       <c r="O30" t="n">
-        <v>-13.61167012159265</v>
+        <v>9.424171944775225</v>
       </c>
       <c r="P30" t="n">
-        <v>-30.6523596820303</v>
+        <v>-21.19236077944852</v>
       </c>
     </row>
     <row r="31">
@@ -1917,47 +1917,47 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>3.154812574386597</v>
+        <v>4.349363327026367</v>
       </c>
       <c r="E31" t="n">
-        <v>29.76942760195683</v>
+        <v>-11.38833536009654</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>45.6569808627412</v>
+        <v>5.652354200341113</v>
       </c>
       <c r="H31" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I31" t="n">
-        <v>-13.50428530215956</v>
+        <v>-51.42857777503137</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.880338805748957</v>
+        <v>-25.00000548168919</v>
       </c>
       <c r="N31" t="n">
-        <v>15.88755326078437</v>
+        <v>17.04068956043765</v>
       </c>
       <c r="O31" t="n">
-        <v>-31.64976640770578</v>
+        <v>-13.61167012159265</v>
       </c>
       <c r="P31" t="n">
-        <v>-47.53731966849016</v>
+        <v>-30.6523596820303</v>
       </c>
     </row>
     <row r="32">
@@ -1967,47 +1967,47 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1086</v>
+        <v>1007</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>3.768881320953369</v>
+        <v>3.154812574386597</v>
       </c>
       <c r="E32" t="n">
-        <v>5.152476930109452</v>
+        <v>29.76942760195683</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>15.31464878070279</v>
+        <v>45.6569808627412</v>
       </c>
       <c r="H32" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I32" t="n">
-        <v>-10.379592781582</v>
+        <v>-13.50428530215956</v>
       </c>
       <c r="J32" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M32" t="n">
-        <v>11.59981816610675</v>
+        <v>-1.880338805748957</v>
       </c>
       <c r="N32" t="n">
-        <v>10.16217185059334</v>
+        <v>15.88755326078437</v>
       </c>
       <c r="O32" t="n">
-        <v>6.447341235997302</v>
+        <v>-31.64976640770578</v>
       </c>
       <c r="P32" t="n">
-        <v>-3.714830614596032</v>
+        <v>-47.53731966849016</v>
       </c>
     </row>
     <row r="33">
@@ -2017,47 +2017,47 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1125</v>
+        <v>1086</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>4.276069641113281</v>
+        <v>3.768881320953369</v>
       </c>
       <c r="E33" t="n">
-        <v>-9.534424495024737</v>
+        <v>5.152476930109452</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>8.080414756441105</v>
+        <v>15.31464878070279</v>
       </c>
       <c r="H33" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>-21.00954682913174</v>
+        <v>-10.379592781582</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M33" t="n">
-        <v>-14.87040856562225</v>
+        <v>11.59981816610675</v>
       </c>
       <c r="N33" t="n">
-        <v>17.61483925146584</v>
+        <v>10.16217185059334</v>
       </c>
       <c r="O33" t="n">
-        <v>-5.335984070597513</v>
+        <v>6.447341235997302</v>
       </c>
       <c r="P33" t="n">
-        <v>-22.95082332206336</v>
+        <v>-3.714830614596032</v>
       </c>
     </row>
     <row r="34">
@@ -2067,47 +2067,47 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>4.04066276550293</v>
+        <v>4.276069641113281</v>
       </c>
       <c r="E34" t="n">
-        <v>10.23845735910475</v>
+        <v>-9.534424495024737</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.89671317539236</v>
+        <v>8.080414756441105</v>
       </c>
       <c r="H34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.505429414300563</v>
+        <v>-21.00954682913174</v>
       </c>
       <c r="J34" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>-6.687671202485189</v>
+        <v>-14.87040856562225</v>
       </c>
       <c r="N34" t="n">
-        <v>8.658255816287612</v>
+        <v>17.61483925146584</v>
       </c>
       <c r="O34" t="n">
-        <v>-16.92612856158994</v>
+        <v>-5.335984070597513</v>
       </c>
       <c r="P34" t="n">
-        <v>-25.58438437787755</v>
+        <v>-22.95082332206336</v>
       </c>
     </row>
     <row r="35">
@@ -2117,47 +2117,47 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>4.327149868011475</v>
+        <v>4.04066276550293</v>
       </c>
       <c r="E35" t="n">
-        <v>4.528055004848099</v>
+        <v>10.23845735910475</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>11.02493246652107</v>
+        <v>18.89671317539236</v>
       </c>
       <c r="H35" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I35" t="n">
-        <v>-14.56299969078517</v>
+        <v>-8.505429414300563</v>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M35" t="n">
-        <v>-12.86558958316046</v>
+        <v>-6.687671202485189</v>
       </c>
       <c r="N35" t="n">
-        <v>6.496877461672968</v>
+        <v>8.658255816287612</v>
       </c>
       <c r="O35" t="n">
-        <v>-17.39364458800856</v>
+        <v>-16.92612856158994</v>
       </c>
       <c r="P35" t="n">
-        <v>-23.89052204968153</v>
+        <v>-25.58438437787755</v>
       </c>
     </row>
     <row r="36">
@@ -2167,47 +2167,47 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>4.374898433685303</v>
+        <v>4.327149868011475</v>
       </c>
       <c r="E36" t="n">
-        <v>11.66959333402145</v>
+        <v>4.528055004848099</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>14.23997875060351</v>
+        <v>11.02493246652107</v>
       </c>
       <c r="H36" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I36" t="n">
-        <v>-15.49547716016563</v>
+        <v>-14.56299969078517</v>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M36" t="n">
-        <v>-13.81659294502229</v>
+        <v>-12.86558958316046</v>
       </c>
       <c r="N36" t="n">
-        <v>2.570385416582058</v>
+        <v>6.496877461672968</v>
       </c>
       <c r="O36" t="n">
-        <v>-25.48618627904374</v>
+        <v>-17.39364458800856</v>
       </c>
       <c r="P36" t="n">
-        <v>-28.05657169562579</v>
+        <v>-23.89052204968153</v>
       </c>
     </row>
     <row r="37">
@@ -2217,47 +2217,47 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>4.384119987487793</v>
+        <v>4.374898433685303</v>
       </c>
       <c r="E37" t="n">
-        <v>21.45867281491328</v>
+        <v>11.66959333402145</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>27.11127312686831</v>
+        <v>14.23997875060351</v>
       </c>
       <c r="H37" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I37" t="n">
-        <v>-15.67322389295243</v>
+        <v>-15.49547716016563</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M37" t="n">
-        <v>-13.99787104126682</v>
+        <v>-13.81659294502229</v>
       </c>
       <c r="N37" t="n">
-        <v>5.652600311955027</v>
+        <v>2.570385416582058</v>
       </c>
       <c r="O37" t="n">
-        <v>-35.4565438561801</v>
+        <v>-25.48618627904374</v>
       </c>
       <c r="P37" t="n">
-        <v>-41.10914416813513</v>
+        <v>-28.05657169562579</v>
       </c>
     </row>
     <row r="38">
@@ -2267,47 +2267,47 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>4.385642528533936</v>
+        <v>4.384119987487793</v>
       </c>
       <c r="E38" t="n">
-        <v>35.68995186553007</v>
+        <v>21.45867281491328</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>39.09286191380659</v>
+        <v>27.11127312686831</v>
       </c>
       <c r="H38" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.629620166839571</v>
+        <v>-15.67322389295243</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>21.41650662978359</v>
+        <v>-13.99787104126682</v>
       </c>
       <c r="N38" t="n">
-        <v>3.402910048276517</v>
+        <v>5.652600311955027</v>
       </c>
       <c r="O38" t="n">
-        <v>-14.27344523574648</v>
+        <v>-35.4565438561801</v>
       </c>
       <c r="P38" t="n">
-        <v>-17.676355284023</v>
+        <v>-41.10914416813513</v>
       </c>
     </row>
     <row r="39">
@@ -2317,47 +2317,47 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1211</v>
+        <v>1187</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>5.5282301902771</v>
+        <v>4.385642528533936</v>
       </c>
       <c r="E39" t="n">
-        <v>22.49010418647835</v>
+        <v>35.68995186553007</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>27.43657117516194</v>
+        <v>39.09286191380659</v>
       </c>
       <c r="H39" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I39" t="n">
-        <v>-7.931027202206529</v>
+        <v>-4.629620166839571</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M39" t="n">
-        <v>-3.678143490093922</v>
+        <v>21.41650662978359</v>
       </c>
       <c r="N39" t="n">
-        <v>4.946466988683589</v>
+        <v>3.402910048276517</v>
       </c>
       <c r="O39" t="n">
-        <v>-26.16824767657227</v>
+        <v>-14.27344523574648</v>
       </c>
       <c r="P39" t="n">
-        <v>-31.11471466525586</v>
+        <v>-17.676355284023</v>
       </c>
     </row>
     <row r="40">
@@ -2367,47 +2367,47 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1228</v>
+        <v>1211</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>5.966675758361816</v>
+        <v>5.5282301902771</v>
       </c>
       <c r="E40" t="n">
-        <v>10.47411713201907</v>
+        <v>22.49010418647835</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>18.85617982869401</v>
+        <v>27.43657117516194</v>
       </c>
       <c r="H40" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I40" t="n">
-        <v>-13.31203867389179</v>
+        <v>-7.931027202206529</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>-6.389773344992649</v>
+        <v>-3.678143490093922</v>
       </c>
       <c r="N40" t="n">
-        <v>8.382062696674941</v>
+        <v>4.946466988683589</v>
       </c>
       <c r="O40" t="n">
-        <v>-16.86389047701172</v>
+        <v>-26.16824767657227</v>
       </c>
       <c r="P40" t="n">
-        <v>-25.24595317368666</v>
+        <v>-31.11471466525586</v>
       </c>
     </row>
     <row r="41">
@@ -2417,47 +2417,47 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>6.157641410827637</v>
+        <v>5.966675758361816</v>
       </c>
       <c r="E41" t="n">
-        <v>8.950084059252688</v>
+        <v>10.47411713201907</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>18.13795554271663</v>
+        <v>18.85617982869401</v>
       </c>
       <c r="H41" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.616996759607026</v>
+        <v>-13.31203867389179</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02676266948335503</v>
+        <v>-6.389773344992649</v>
       </c>
       <c r="N41" t="n">
-        <v>9.187871483463937</v>
+        <v>8.382062696674941</v>
       </c>
       <c r="O41" t="n">
-        <v>-8.923321389769333</v>
+        <v>-16.86389047701172</v>
       </c>
       <c r="P41" t="n">
-        <v>-18.11119287323327</v>
+        <v>-25.24595317368666</v>
       </c>
     </row>
     <row r="42">
@@ -2467,26 +2467,26 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>6.27394437789917</v>
+        <v>6.157641410827637</v>
       </c>
       <c r="E42" t="n">
-        <v>13.44631905279267</v>
+        <v>8.950084059252688</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>15.94797840460505</v>
+        <v>18.13795554271663</v>
       </c>
       <c r="H42" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I42" t="n">
-        <v>-5.664276686971045</v>
+        <v>-4.616996759607026</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2495,19 +2495,19 @@
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M42" t="n">
-        <v>-1.82747902988543</v>
+        <v>0.02676266948335503</v>
       </c>
       <c r="N42" t="n">
-        <v>2.501659351812386</v>
+        <v>9.187871483463937</v>
       </c>
       <c r="O42" t="n">
-        <v>-15.27379808267809</v>
+        <v>-8.923321389769333</v>
       </c>
       <c r="P42" t="n">
-        <v>-17.77545743449048</v>
+        <v>-18.11119287323327</v>
       </c>
     </row>
     <row r="43">
@@ -2517,26 +2517,26 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>6.436028957366943</v>
+        <v>6.27394437789917</v>
       </c>
       <c r="E43" t="n">
-        <v>18.64250791508336</v>
+        <v>13.44631905279267</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>18.86933047769651</v>
+        <v>15.94797840460505</v>
       </c>
       <c r="H43" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.056222835527236</v>
+        <v>-5.664276686971045</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2545,19 +2545,19 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M43" t="n">
-        <v>-4.299850096289407</v>
+        <v>-1.82747902988543</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2268225626131475</v>
+        <v>2.501659351812386</v>
       </c>
       <c r="O43" t="n">
-        <v>-22.94235801137277</v>
+        <v>-15.27379808267809</v>
       </c>
       <c r="P43" t="n">
-        <v>-23.16918057398592</v>
+        <v>-17.77545743449048</v>
       </c>
     </row>
     <row r="44">
@@ -2567,47 +2567,47 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1282</v>
+        <v>1251</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>6.785928249359131</v>
+        <v>6.436028957366943</v>
       </c>
       <c r="E44" t="n">
-        <v>19.59542476022447</v>
+        <v>18.64250791508336</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>30.16076806392388</v>
+        <v>18.86933047769651</v>
       </c>
       <c r="H44" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I44" t="n">
-        <v>-4.453876053984009</v>
+        <v>-7.056222835527236</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="M44" t="n">
-        <v>11.98710038554231</v>
+        <v>-4.299850096289407</v>
       </c>
       <c r="N44" t="n">
-        <v>10.56534330369941</v>
+        <v>0.2268225626131475</v>
       </c>
       <c r="O44" t="n">
-        <v>-7.608324374682168</v>
+        <v>-22.94235801137277</v>
       </c>
       <c r="P44" t="n">
-        <v>-18.17366767838158</v>
+        <v>-23.16918057398592</v>
       </c>
     </row>
     <row r="45">
@@ -2617,47 +2617,47 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1301</v>
+        <v>1282</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>7.409561634063721</v>
+        <v>6.785928249359131</v>
       </c>
       <c r="E45" t="n">
-        <v>9.473834731848822</v>
+        <v>19.59542476022447</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>19.20565299068096</v>
+        <v>30.16076806392388</v>
       </c>
       <c r="H45" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I45" t="n">
-        <v>-5.714285177382491</v>
+        <v>-4.453876053984009</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M45" t="n">
-        <v>2.561590766238987</v>
+        <v>11.98710038554231</v>
       </c>
       <c r="N45" t="n">
-        <v>9.731818258832135</v>
+        <v>10.56534330369941</v>
       </c>
       <c r="O45" t="n">
-        <v>-6.912243965609834</v>
+        <v>-7.608324374682168</v>
       </c>
       <c r="P45" t="n">
-        <v>-16.64406222444197</v>
+        <v>-18.17366767838158</v>
       </c>
     </row>
     <row r="46">
@@ -2667,47 +2667,47 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1348</v>
+        <v>1301</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>7.78167200088501</v>
+        <v>7.409561634063721</v>
       </c>
       <c r="E46" t="n">
-        <v>12.62117134696978</v>
+        <v>9.473834731848822</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>32.85757691595161</v>
+        <v>19.20565299068096</v>
       </c>
       <c r="H46" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.179166024232206</v>
+        <v>-5.714285177382491</v>
       </c>
       <c r="J46" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
-        <v>17.5109864982972</v>
+        <v>2.561590766238987</v>
       </c>
       <c r="N46" t="n">
-        <v>20.23640556898183</v>
+        <v>9.731818258832135</v>
       </c>
       <c r="O46" t="n">
-        <v>4.889815151327419</v>
+        <v>-6.912243965609834</v>
       </c>
       <c r="P46" t="n">
-        <v>-15.34659041765441</v>
+        <v>-16.64406222444197</v>
       </c>
     </row>
     <row r="47">
@@ -2717,47 +2717,47 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>8.366422653198242</v>
+        <v>7.78167200088501</v>
       </c>
       <c r="E47" t="n">
-        <v>13.73882772149922</v>
+        <v>12.62117134696978</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>23.57182146386959</v>
+        <v>32.85757691595161</v>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I47" t="n">
-        <v>-9.946221451822721</v>
+        <v>-3.179166024232206</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M47" t="n">
-        <v>9.297843455304616</v>
+        <v>17.5109864982972</v>
       </c>
       <c r="N47" t="n">
-        <v>9.83299374237037</v>
+        <v>20.23640556898183</v>
       </c>
       <c r="O47" t="n">
-        <v>-4.440984266194604</v>
+        <v>4.889815151327419</v>
       </c>
       <c r="P47" t="n">
-        <v>-14.27397800856497</v>
+        <v>-15.34659041765441</v>
       </c>
     </row>
     <row r="48">
@@ -2767,47 +2767,47 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1408</v>
+        <v>1356</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>9.515871047973633</v>
+        <v>8.366422653198242</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.26141112438683</v>
+        <v>13.73882772149922</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>3.306435030211446</v>
+        <v>23.57182146386959</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>-26.92889808864473</v>
+        <v>-9.946221451822721</v>
       </c>
       <c r="J48" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M48" t="n">
-        <v>-24.38943371462783</v>
+        <v>9.297843455304616</v>
       </c>
       <c r="N48" t="n">
-        <v>18.56784615459828</v>
+        <v>9.83299374237037</v>
       </c>
       <c r="O48" t="n">
-        <v>-9.128022590241001</v>
+        <v>-4.440984266194604</v>
       </c>
       <c r="P48" t="n">
-        <v>-27.69586874483928</v>
+        <v>-14.27397800856497</v>
       </c>
     </row>
     <row r="49">
@@ -2817,47 +2817,47 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>7.639332771301269</v>
+        <v>9.515871047973633</v>
       </c>
       <c r="E49" t="n">
-        <v>1.50405952446196</v>
+        <v>-15.26141112438683</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>9.285716682315359</v>
+        <v>3.306435030211446</v>
       </c>
       <c r="H49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>-8.979592336392695</v>
+        <v>-26.92889808864473</v>
       </c>
       <c r="J49" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M49" t="n">
-        <v>-5.816329753454895</v>
+        <v>-24.38943371462783</v>
       </c>
       <c r="N49" t="n">
-        <v>7.781657157853399</v>
+        <v>18.56784615459828</v>
       </c>
       <c r="O49" t="n">
-        <v>-7.320389277916854</v>
+        <v>-9.128022590241001</v>
       </c>
       <c r="P49" t="n">
-        <v>-15.10204643577025</v>
+        <v>-27.69586874483928</v>
       </c>
     </row>
     <row r="50">
@@ -2867,47 +2867,47 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1451</v>
+        <v>1425</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>7.406169414520264</v>
+        <v>7.639332771301269</v>
       </c>
       <c r="E50" t="n">
-        <v>16.53441702389469</v>
+        <v>1.50405952446196</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>27.61625757184115</v>
+        <v>9.285716682315359</v>
       </c>
       <c r="H50" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.81294481170536</v>
+        <v>-8.979592336392695</v>
       </c>
       <c r="J50" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M50" t="n">
-        <v>6.737955388867388</v>
+        <v>-5.816329753454895</v>
       </c>
       <c r="N50" t="n">
-        <v>11.08184054794646</v>
+        <v>7.781657157853399</v>
       </c>
       <c r="O50" t="n">
-        <v>-9.796461635027299</v>
+        <v>-7.320389277916854</v>
       </c>
       <c r="P50" t="n">
-        <v>-20.87830218297376</v>
+        <v>-15.10204643577025</v>
       </c>
     </row>
     <row r="51">
@@ -2917,47 +2917,47 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1530</v>
+        <v>1451</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>10.11543560028076</v>
+        <v>7.406169414520264</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.390162426887725</v>
+        <v>16.53441702389469</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>12.55075790983831</v>
+        <v>27.61625757184115</v>
       </c>
       <c r="H51" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I51" t="n">
-        <v>-23.84242461784176</v>
+        <v>-6.81294481170536</v>
       </c>
       <c r="J51" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M51" t="n">
-        <v>-4.138947428362721</v>
+        <v>6.737955388867388</v>
       </c>
       <c r="N51" t="n">
-        <v>20.94092033672603</v>
+        <v>11.08184054794646</v>
       </c>
       <c r="O51" t="n">
-        <v>4.251214998525004</v>
+        <v>-9.796461635027299</v>
       </c>
       <c r="P51" t="n">
-        <v>-16.68970533820103</v>
+        <v>-20.87830218297376</v>
       </c>
     </row>
     <row r="52">
@@ -2967,47 +2967,47 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>9.588091850280762</v>
+        <v>10.11543560028076</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.025546649176837</v>
+        <v>-8.390162426887725</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>18.74103431397792</v>
+        <v>12.55075790983831</v>
       </c>
       <c r="H52" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I52" t="n">
-        <v>-19.65376831165931</v>
+        <v>-23.84242461784176</v>
       </c>
       <c r="J52" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M52" t="n">
-        <v>1.133397448120087</v>
+        <v>-4.138947428362721</v>
       </c>
       <c r="N52" t="n">
-        <v>24.76658096315475</v>
+        <v>20.94092033672603</v>
       </c>
       <c r="O52" t="n">
-        <v>7.158944097296924</v>
+        <v>4.251214998525004</v>
       </c>
       <c r="P52" t="n">
-        <v>-17.60763686585783</v>
+        <v>-16.68970533820103</v>
       </c>
     </row>
     <row r="53">
@@ -3017,29 +3017,29 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1625</v>
+        <v>1551</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>8.86264705657959</v>
+        <v>9.588091850280762</v>
       </c>
       <c r="E53" t="n">
-        <v>1.793190022897468</v>
+        <v>-6.025546649176837</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>26.16332318103526</v>
+        <v>18.74103431397792</v>
       </c>
       <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-19.65376831165931</v>
+      </c>
+      <c r="J53" t="n">
         <v>26</v>
-      </c>
-      <c r="I53" t="n">
-        <v>-6.949151637247543</v>
-      </c>
-      <c r="J53" t="n">
-        <v>50</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -3048,16 +3048,16 @@
         <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>-1.568637747401072</v>
+        <v>1.133397448120087</v>
       </c>
       <c r="N53" t="n">
-        <v>24.37013315813779</v>
+        <v>24.76658096315475</v>
       </c>
       <c r="O53" t="n">
-        <v>-3.36182777029854</v>
+        <v>7.158944097296924</v>
       </c>
       <c r="P53" t="n">
-        <v>-27.73196092843633</v>
+        <v>-17.60763686585783</v>
       </c>
     </row>
     <row r="54">
@@ -3067,47 +3067,47 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>9.429362297058104</v>
+        <v>8.86264705657959</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03195985841784605</v>
+        <v>1.793190022897468</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>18.58076608081482</v>
+        <v>26.16332318103526</v>
       </c>
       <c r="H54" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I54" t="n">
-        <v>-12.54161189546452</v>
+        <v>-6.949151637247543</v>
       </c>
       <c r="J54" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.174715746895299</v>
+        <v>-1.568637747401072</v>
       </c>
       <c r="N54" t="n">
-        <v>18.54880622239697</v>
+        <v>24.37013315813779</v>
       </c>
       <c r="O54" t="n">
-        <v>-5.206675605313145</v>
+        <v>-3.36182777029854</v>
       </c>
       <c r="P54" t="n">
-        <v>-23.75548182771012</v>
+        <v>-27.73196092843633</v>
       </c>
     </row>
     <row r="55">
@@ -3117,47 +3117,47 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>9.55262279510498</v>
+        <v>9.429362297058104</v>
       </c>
       <c r="E55" t="n">
-        <v>3.853433647633344</v>
+        <v>0.03195985841784605</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>17.05068113980875</v>
+        <v>18.58076608081482</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>-13.67011499951947</v>
+        <v>-12.54161189546452</v>
       </c>
       <c r="J55" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M55" t="n">
-        <v>-6.398276230249013</v>
+        <v>-5.174715746895299</v>
       </c>
       <c r="N55" t="n">
-        <v>13.1972474921754</v>
+        <v>18.54880622239697</v>
       </c>
       <c r="O55" t="n">
-        <v>-10.25170987788236</v>
+        <v>-5.206675605313145</v>
       </c>
       <c r="P55" t="n">
-        <v>-23.44895737005776</v>
+        <v>-23.75548182771012</v>
       </c>
     </row>
     <row r="56">
@@ -3167,47 +3167,47 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>10.04566097259522</v>
+        <v>9.55262279510498</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5234563288147795</v>
+        <v>3.853433647633344</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>11.30586706927646</v>
+        <v>17.05068113980875</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
-        <v>-17.90716115105633</v>
+        <v>-13.67011499951947</v>
       </c>
       <c r="J56" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M56" t="n">
-        <v>-10.99222215608492</v>
+        <v>-6.398276230249013</v>
       </c>
       <c r="N56" t="n">
-        <v>11.82932339809124</v>
+        <v>13.1972474921754</v>
       </c>
       <c r="O56" t="n">
-        <v>-10.46876582727014</v>
+        <v>-10.25170987788236</v>
       </c>
       <c r="P56" t="n">
-        <v>-22.29808922536138</v>
+        <v>-23.44895737005776</v>
       </c>
     </row>
     <row r="57">
@@ -3217,47 +3217,47 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1671</v>
+        <v>1644</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>9.529202461242676</v>
+        <v>10.04566097259522</v>
       </c>
       <c r="E57" t="n">
-        <v>12.36037334720565</v>
+        <v>-0.5234563288147795</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>24.60773890326039</v>
+        <v>11.30586706927646</v>
       </c>
       <c r="H57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>-13.45793829981884</v>
+        <v>-17.90716115105633</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M57" t="n">
-        <v>9.857043964662859</v>
+        <v>-10.99222215608492</v>
       </c>
       <c r="N57" t="n">
-        <v>12.24736555605474</v>
+        <v>11.82932339809124</v>
       </c>
       <c r="O57" t="n">
-        <v>-2.503329382542795</v>
+        <v>-10.46876582727014</v>
       </c>
       <c r="P57" t="n">
-        <v>-14.75069493859753</v>
+        <v>-22.29808922536138</v>
       </c>
     </row>
     <row r="58">
@@ -3267,47 +3267,47 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>8.880722045898438</v>
+        <v>9.529202461242676</v>
       </c>
       <c r="E58" t="n">
-        <v>40.61614593982546</v>
+        <v>12.36037334720565</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>42.9196049755929</v>
+        <v>24.60773890326039</v>
       </c>
       <c r="H58" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.647642592609632</v>
+        <v>-13.45793829981884</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M58" t="n">
-        <v>17.87893015032465</v>
+        <v>9.857043964662859</v>
       </c>
       <c r="N58" t="n">
-        <v>2.303459035767439</v>
+        <v>12.24736555605474</v>
       </c>
       <c r="O58" t="n">
-        <v>-22.73721578950081</v>
+        <v>-2.503329382542795</v>
       </c>
       <c r="P58" t="n">
-        <v>-25.04067482526825</v>
+        <v>-14.75069493859753</v>
       </c>
     </row>
     <row r="59">
@@ -3317,47 +3317,47 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>9.097768783569336</v>
+        <v>8.880722045898438</v>
       </c>
       <c r="E59" t="n">
-        <v>42.37169043645179</v>
+        <v>40.61614593982546</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>43.08712293206033</v>
+        <v>42.9196049755929</v>
       </c>
       <c r="H59" t="n">
         <v>52</v>
       </c>
       <c r="I59" t="n">
-        <v>-2.683901058663761</v>
+        <v>-2.647642592609632</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M59" t="n">
-        <v>15.06667608694695</v>
+        <v>17.87893015032465</v>
       </c>
       <c r="N59" t="n">
-        <v>0.715432495608546</v>
+        <v>2.303459035767439</v>
       </c>
       <c r="O59" t="n">
-        <v>-27.30501434950484</v>
+        <v>-22.73721578950081</v>
       </c>
       <c r="P59" t="n">
-        <v>-28.02044684511338</v>
+        <v>-25.04067482526825</v>
       </c>
     </row>
     <row r="60">
@@ -3367,26 +3367,26 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>9.703681945800779</v>
+        <v>9.097768783569336</v>
       </c>
       <c r="E60" t="n">
-        <v>35.30241822937842</v>
+        <v>42.37169043645179</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>40.47687299387245</v>
+        <v>43.08712293206033</v>
       </c>
       <c r="H60" t="n">
         <v>52</v>
       </c>
       <c r="I60" t="n">
-        <v>-7.548923583398056</v>
+        <v>-2.683901058663761</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M60" t="n">
-        <v>7.881731860134733</v>
+        <v>15.06667608694695</v>
       </c>
       <c r="N60" t="n">
-        <v>5.174454764494037</v>
+        <v>0.715432495608546</v>
       </c>
       <c r="O60" t="n">
-        <v>-27.42068636924368</v>
+        <v>-27.30501434950484</v>
       </c>
       <c r="P60" t="n">
-        <v>-32.59514113373772</v>
+        <v>-28.02044684511338</v>
       </c>
     </row>
     <row r="61">
@@ -3417,47 +3417,47 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1703</v>
+        <v>1686</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>11.7294282913208</v>
+        <v>9.703681945800779</v>
       </c>
       <c r="E61" t="n">
-        <v>11.53846060031399</v>
+        <v>35.30241822937842</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>16.21562981734138</v>
+        <v>40.47687299387245</v>
       </c>
       <c r="H61" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I61" t="n">
-        <v>-14.89581893213765</v>
+        <v>-7.548923583398056</v>
       </c>
       <c r="J61" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M61" t="n">
-        <v>-10.75012458130397</v>
+        <v>7.881731860134733</v>
       </c>
       <c r="N61" t="n">
-        <v>4.677169217027393</v>
+        <v>5.174454764494037</v>
       </c>
       <c r="O61" t="n">
-        <v>-22.28858518161795</v>
+        <v>-27.42068636924368</v>
       </c>
       <c r="P61" t="n">
-        <v>-26.96575439864534</v>
+        <v>-32.59514113373772</v>
       </c>
     </row>
     <row r="62">
@@ -3467,47 +3467,47 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1717</v>
+        <v>1703</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>10.92724323272705</v>
+        <v>11.7294282913208</v>
       </c>
       <c r="E62" t="n">
-        <v>13.78973463623157</v>
+        <v>11.53846060031399</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>29.85280656593774</v>
+        <v>16.21562981734138</v>
       </c>
       <c r="H62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I62" t="n">
-        <v>-4.366077948247296</v>
+        <v>-14.89581893213765</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>13.78973463623157</v>
+        <v>-10.75012458130397</v>
       </c>
       <c r="N62" t="n">
-        <v>16.06307192970617</v>
+        <v>4.677169217027393</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>-22.28858518161795</v>
       </c>
       <c r="P62" t="n">
-        <v>-16.06307192970617</v>
+        <v>-26.96575439864534</v>
       </c>
     </row>
     <row r="63">
@@ -3517,47 +3517,47 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>11.40433597564697</v>
+        <v>10.92724323272705</v>
       </c>
       <c r="E63" t="n">
-        <v>9.112129779509868</v>
+        <v>13.78973463623157</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>24.42050153803552</v>
+        <v>29.85280656593774</v>
       </c>
       <c r="H63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I63" t="n">
-        <v>-8.366858904305749</v>
+        <v>-4.366077948247296</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M63" t="n">
-        <v>9.029417443748128</v>
+        <v>13.78973463623157</v>
       </c>
       <c r="N63" t="n">
-        <v>15.30837175852565</v>
+        <v>16.06307192970617</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.0827123357617392</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>-15.39108409428739</v>
+        <v>-16.06307192970617</v>
       </c>
     </row>
     <row r="64">
@@ -3567,47 +3567,47 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>11.89977741241455</v>
+        <v>11.40433597564697</v>
       </c>
       <c r="E64" t="n">
-        <v>21.05939009703697</v>
+        <v>9.112129779509868</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>26.05397502681499</v>
+        <v>24.42050153803552</v>
       </c>
       <c r="H64" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I64" t="n">
-        <v>-8.018503781351676</v>
+        <v>-8.366858904305749</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M64" t="n">
-        <v>4.490030751362758</v>
+        <v>9.029417443748128</v>
       </c>
       <c r="N64" t="n">
-        <v>4.994584929778011</v>
+        <v>15.30837175852565</v>
       </c>
       <c r="O64" t="n">
-        <v>-16.56935934567421</v>
+        <v>-0.0827123357617392</v>
       </c>
       <c r="P64" t="n">
-        <v>-21.56394427545223</v>
+        <v>-15.39108409428739</v>
       </c>
     </row>
     <row r="65">
@@ -3617,26 +3617,26 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>12.38544654846191</v>
+        <v>11.89977741241455</v>
       </c>
       <c r="E65" t="n">
-        <v>18.84439476088624</v>
+        <v>21.05939009703697</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>21.11103454363864</v>
+        <v>26.05397502681499</v>
       </c>
       <c r="H65" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I65" t="n">
-        <v>-3.415915421400917</v>
+        <v>-8.018503781351676</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3645,19 +3645,19 @@
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M65" t="n">
-        <v>0.392674813326042</v>
+        <v>4.490030751362758</v>
       </c>
       <c r="N65" t="n">
-        <v>2.266639782752403</v>
+        <v>4.994584929778011</v>
       </c>
       <c r="O65" t="n">
-        <v>-18.4517199475602</v>
+        <v>-16.56935934567421</v>
       </c>
       <c r="P65" t="n">
-        <v>-20.7183597303126</v>
+        <v>-21.56394427545223</v>
       </c>
     </row>
     <row r="66">
@@ -3667,47 +3667,47 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>13.10142135620117</v>
+        <v>12.38544654846191</v>
       </c>
       <c r="E66" t="n">
-        <v>2.993331700858854</v>
+        <v>18.84439476088624</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>18.78222673631807</v>
+        <v>21.11103454363864</v>
       </c>
       <c r="H66" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I66" t="n">
-        <v>-8.550028437780028</v>
+        <v>-3.415915421400917</v>
       </c>
       <c r="J66" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M66" t="n">
-        <v>-5.093647936982214</v>
+        <v>0.392674813326042</v>
       </c>
       <c r="N66" t="n">
-        <v>15.78889503545922</v>
+        <v>2.266639782752403</v>
       </c>
       <c r="O66" t="n">
-        <v>-8.086979637841068</v>
+        <v>-18.4517199475602</v>
       </c>
       <c r="P66" t="n">
-        <v>-23.87587467330029</v>
+        <v>-20.7183597303126</v>
       </c>
     </row>
     <row r="67">
@@ -3717,47 +3717,47 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>13.07352638244629</v>
+        <v>13.10142135620117</v>
       </c>
       <c r="E67" t="n">
-        <v>32.14791080568048</v>
+        <v>2.993331700858854</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>33.83271997698342</v>
+        <v>18.78222673631807</v>
       </c>
       <c r="H67" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I67" t="n">
-        <v>-8.354901699822145</v>
+        <v>-8.550028437780028</v>
       </c>
       <c r="J67" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M67" t="n">
-        <v>-4.891146322458044</v>
+        <v>-5.093647936982214</v>
       </c>
       <c r="N67" t="n">
-        <v>1.684809171302938</v>
+        <v>15.78889503545922</v>
       </c>
       <c r="O67" t="n">
-        <v>-37.03905712813852</v>
+        <v>-8.086979637841068</v>
       </c>
       <c r="P67" t="n">
-        <v>-38.72386629944146</v>
+        <v>-23.87587467330029</v>
       </c>
     </row>
     <row r="68">
@@ -3767,47 +3767,47 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>13.91038036346436</v>
+        <v>13.07352638244629</v>
       </c>
       <c r="E68" t="n">
-        <v>25.50590833417946</v>
+        <v>32.14791080568048</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>25.78129064314729</v>
+        <v>33.83271997698342</v>
       </c>
       <c r="H68" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I68" t="n">
-        <v>-13.86830703809254</v>
+        <v>-8.354901699822145</v>
       </c>
       <c r="J68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M68" t="n">
-        <v>-10.61293255334826</v>
+        <v>-4.891146322458044</v>
       </c>
       <c r="N68" t="n">
-        <v>0.2753823089678313</v>
+        <v>1.684809171302938</v>
       </c>
       <c r="O68" t="n">
-        <v>-36.11884088752772</v>
+        <v>-37.03905712813852</v>
       </c>
       <c r="P68" t="n">
-        <v>-36.39422319649555</v>
+        <v>-38.72386629944146</v>
       </c>
     </row>
     <row r="69">
@@ -3817,47 +3817,47 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1774</v>
+        <v>1757</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>12.8303108215332</v>
+        <v>13.91038036346436</v>
       </c>
       <c r="E69" t="n">
-        <v>45.92321911024865</v>
+        <v>25.50590833417946</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>49.10864838537803</v>
+        <v>25.78129064314729</v>
       </c>
       <c r="H69" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I69" t="n">
-        <v>-2.058828520527202</v>
+        <v>-13.86830703809254</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M69" t="n">
-        <v>5.169629501672271</v>
+        <v>-10.61293255334826</v>
       </c>
       <c r="N69" t="n">
-        <v>3.185429275129387</v>
+        <v>0.2753823089678313</v>
       </c>
       <c r="O69" t="n">
-        <v>-40.75358960857638</v>
+        <v>-36.11884088752772</v>
       </c>
       <c r="P69" t="n">
-        <v>-43.93901888370576</v>
+        <v>-36.39422319649555</v>
       </c>
     </row>
     <row r="70">
@@ -3867,47 +3867,47 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>15.46639251708984</v>
+        <v>12.8303108215332</v>
       </c>
       <c r="E70" t="n">
-        <v>30.14356916966218</v>
+        <v>45.92321911024865</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>33.82430765293228</v>
+        <v>49.10864838537803</v>
       </c>
       <c r="H70" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="n">
-        <v>-14.42724287516297</v>
+        <v>-2.058828520527202</v>
       </c>
       <c r="J70" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M70" t="n">
-        <v>-12.75541248542949</v>
+        <v>5.169629501672271</v>
       </c>
       <c r="N70" t="n">
-        <v>3.680738483270101</v>
+        <v>3.185429275129387</v>
       </c>
       <c r="O70" t="n">
-        <v>-42.89898165509167</v>
+        <v>-40.75358960857638</v>
       </c>
       <c r="P70" t="n">
-        <v>-46.57972013836177</v>
+        <v>-43.93901888370576</v>
       </c>
     </row>
     <row r="71">
@@ -3917,47 +3917,47 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1808</v>
+        <v>1787</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>17.27639198303223</v>
+        <v>15.46639251708984</v>
       </c>
       <c r="E71" t="n">
-        <v>48.46581484145441</v>
+        <v>30.14356916966218</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>50.69538210671499</v>
+        <v>33.82430765293228</v>
       </c>
       <c r="H71" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I71" t="n">
-        <v>-13.69180208065928</v>
+        <v>-14.42724287516297</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M71" t="n">
-        <v>32.8017218299577</v>
+        <v>-12.75541248542949</v>
       </c>
       <c r="N71" t="n">
-        <v>2.229567265260584</v>
+        <v>3.680738483270101</v>
       </c>
       <c r="O71" t="n">
-        <v>-15.66409301149671</v>
+        <v>-42.89898165509167</v>
       </c>
       <c r="P71" t="n">
-        <v>-17.89366027675729</v>
+        <v>-46.57972013836177</v>
       </c>
     </row>
     <row r="72">
@@ -3967,47 +3967,47 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>18.18720054626465</v>
+        <v>17.27639198303223</v>
       </c>
       <c r="E72" t="n">
-        <v>35.64484546996848</v>
+        <v>48.46581484145441</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>46.24400176018583</v>
+        <v>50.69538210671499</v>
       </c>
       <c r="H72" t="n">
+        <v>52</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-13.69180208065928</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
         <v>51</v>
       </c>
-      <c r="I72" t="n">
-        <v>-4.761915298187176</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="n">
-        <v>47</v>
-      </c>
       <c r="M72" t="n">
-        <v>26.15105862607182</v>
+        <v>32.8017218299577</v>
       </c>
       <c r="N72" t="n">
-        <v>10.59915629021735</v>
+        <v>2.229567265260584</v>
       </c>
       <c r="O72" t="n">
-        <v>-9.493786843896665</v>
+        <v>-15.66409301149671</v>
       </c>
       <c r="P72" t="n">
-        <v>-20.09294313411402</v>
+        <v>-17.89366027675729</v>
       </c>
     </row>
     <row r="73">
@@ -4017,90 +4017,98 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1823</v>
+        <v>1812</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>18.96567726135254</v>
+        <v>18.18720054626465</v>
       </c>
       <c r="E73" t="n">
-        <v>22.22078856319575</v>
+        <v>35.64484546996848</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>40.24118158547101</v>
+        <v>46.24400176018583</v>
       </c>
       <c r="H73" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I73" t="n">
-        <v>-4.309907063228922</v>
+        <v>-4.761915298187176</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M73" t="n">
-        <v>20.97298560654387</v>
+        <v>26.15105862607182</v>
       </c>
       <c r="N73" t="n">
-        <v>18.02039302227526</v>
+        <v>10.59915629021735</v>
       </c>
       <c r="O73" t="n">
-        <v>-1.247802956651881</v>
+        <v>-9.493786843896665</v>
       </c>
       <c r="P73" t="n">
-        <v>-19.26819597892714</v>
+        <v>-20.09294313411402</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>downtrend_reversal</t>
+          <t>bullish_breakout</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>105</v>
+        <v>1823</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>0.9956012368202209</v>
+        <v>18.96567726135254</v>
       </c>
       <c r="E74" t="n">
-        <v>2.586171440250818</v>
+        <v>22.22078856319575</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>5.263098408647802</v>
+        <v>40.24118158547101</v>
       </c>
       <c r="H74" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I74" t="n">
-        <v>-15.087754228437</v>
+        <v>-4.309907063228922</v>
       </c>
       <c r="J74" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>36</v>
+      </c>
+      <c r="M74" t="n">
+        <v>20.97298560654387</v>
+      </c>
       <c r="N74" t="n">
-        <v>2.676926968396984</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+        <v>18.02039302227526</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-1.247802956651881</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-19.26819597892714</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4109,29 +4117,29 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>1.166803002357483</v>
+        <v>0.9956012368202209</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.03233293348398</v>
+        <v>2.586171440250818</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>11.25824018811889</v>
+        <v>5.263098408647802</v>
       </c>
       <c r="H75" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I75" t="n">
-        <v>-15.04291084061028</v>
+        <v>-15.087754228437</v>
       </c>
       <c r="J75" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4139,7 +4147,7 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>21.29057312160287</v>
+        <v>2.676926968396984</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -4151,29 +4159,29 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>1.067564964294434</v>
+        <v>1.166803002357483</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.956454351929521</v>
+        <v>-10.03233293348398</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>16.18986667409676</v>
+        <v>11.25824018811889</v>
       </c>
       <c r="H76" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I76" t="n">
-        <v>-8.801239985011401</v>
+        <v>-15.04291084061028</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4181,7 +4189,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>18.14632102602628</v>
+        <v>21.29057312160287</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -4193,48 +4201,40 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>610</v>
+        <v>309</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>4.26151704788208</v>
+        <v>1.067564964294434</v>
       </c>
       <c r="E77" t="n">
-        <v>-28.65986859868396</v>
+        <v>-1.956454351929521</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>12.39022264696337</v>
+        <v>16.18986667409676</v>
       </c>
       <c r="H77" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I77" t="n">
-        <v>-32.21206084303223</v>
+        <v>-8.801239985011401</v>
       </c>
       <c r="J77" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>24</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-13.07317437780637</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>41.05009124564733</v>
-      </c>
-      <c r="O77" t="n">
-        <v>15.5866942208776</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-25.46339702476973</v>
-      </c>
+        <v>18.14632102602628</v>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4243,47 +4243,47 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>4.053637504577637</v>
+        <v>4.26151704788208</v>
       </c>
       <c r="E78" t="n">
-        <v>-53.87118116797674</v>
+        <v>-28.65986859868396</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>8.193013697334758</v>
+        <v>12.39022264696337</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I78" t="n">
-        <v>-60.29551590759554</v>
+        <v>-32.21206084303223</v>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M78" t="n">
-        <v>-7.678023557909134</v>
+        <v>-13.07317437780637</v>
       </c>
       <c r="N78" t="n">
-        <v>62.06419486531149</v>
+        <v>41.05009124564733</v>
       </c>
       <c r="O78" t="n">
-        <v>46.1931576100676</v>
+        <v>15.5866942208776</v>
       </c>
       <c r="P78" t="n">
-        <v>-15.87103725524389</v>
+        <v>-25.46339702476973</v>
       </c>
     </row>
     <row r="79">
@@ -4293,40 +4293,48 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>2.914024114608765</v>
+        <v>4.053637504577637</v>
       </c>
       <c r="E79" t="n">
-        <v>-22.76017866681918</v>
+        <v>-53.87118116797674</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>21.35642530241745</v>
+        <v>8.193013697334758</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
-        <v>-44.76792933524313</v>
+        <v>-60.29551590759554</v>
       </c>
       <c r="J79" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>14</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-7.678023557909134</v>
+      </c>
       <c r="N79" t="n">
-        <v>44.11660396923663</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+        <v>62.06419486531149</v>
+      </c>
+      <c r="O79" t="n">
+        <v>46.1931576100676</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-15.87103725524389</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4335,48 +4343,40 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>727</v>
+        <v>661</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>2.196475028991699</v>
+        <v>2.914024114608765</v>
       </c>
       <c r="E80" t="n">
-        <v>46.42107555192385</v>
+        <v>-22.76017866681918</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>61.65570793701981</v>
+        <v>21.35642530241745</v>
       </c>
       <c r="H80" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-7.142843330459948</v>
+        <v>-44.76792933524313</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="n">
-        <v>36</v>
-      </c>
-      <c r="M80" t="n">
-        <v>21.50694629274162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>15.23463238509596</v>
-      </c>
-      <c r="O80" t="n">
-        <v>-24.91412925918223</v>
-      </c>
-      <c r="P80" t="n">
-        <v>-40.1487616442782</v>
-      </c>
+        <v>44.11660396923663</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4385,26 +4385,26 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>765</v>
+        <v>727</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>2.801624536514282</v>
+        <v>2.196475028991699</v>
       </c>
       <c r="E81" t="n">
-        <v>46.38387897401596</v>
+        <v>46.42107555192385</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>53.27450997762355</v>
+        <v>61.65570793701981</v>
       </c>
       <c r="H81" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I81" t="n">
-        <v>-3.921559351430274</v>
+        <v>-7.142843330459948</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -4413,19 +4413,19 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M81" t="n">
-        <v>12.80356807775428</v>
+        <v>21.50694629274162</v>
       </c>
       <c r="N81" t="n">
-        <v>6.890631003607595</v>
+        <v>15.23463238509596</v>
       </c>
       <c r="O81" t="n">
-        <v>-33.58031089626168</v>
+        <v>-24.91412925918223</v>
       </c>
       <c r="P81" t="n">
-        <v>-40.47094189986927</v>
+        <v>-40.1487616442782</v>
       </c>
     </row>
     <row r="82">
@@ -4435,40 +4435,48 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>3.341586828231812</v>
+        <v>2.801624536514282</v>
       </c>
       <c r="E82" t="n">
-        <v>46.91856542170667</v>
+        <v>46.38387897401596</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>49.77691006177325</v>
+        <v>53.27450997762355</v>
       </c>
       <c r="H82" t="n">
         <v>52</v>
       </c>
       <c r="I82" t="n">
-        <v>-3.337975806863146</v>
+        <v>-3.921559351430274</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>15</v>
+      </c>
+      <c r="M82" t="n">
+        <v>12.80356807775428</v>
+      </c>
       <c r="N82" t="n">
-        <v>2.858344640066584</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+        <v>6.890631003607595</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-33.58031089626168</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-40.47094189986927</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4477,48 +4485,40 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>861</v>
+        <v>784</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>5.318991661071777</v>
+        <v>3.341586828231812</v>
       </c>
       <c r="E83" t="n">
-        <v>12.06940479261989</v>
+        <v>46.91856542170667</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>31.39168665420713</v>
+        <v>49.77691006177325</v>
       </c>
       <c r="H83" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I83" t="n">
-        <v>-6.545465204570414</v>
+        <v>-3.337975806863146</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>47</v>
-      </c>
-      <c r="M83" t="n">
-        <v>18.8782000538964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>19.32228186158725</v>
-      </c>
-      <c r="O83" t="n">
-        <v>6.808795261276513</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-12.51348660031073</v>
-      </c>
+        <v>2.858344640066584</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4527,47 +4527,47 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>919</v>
+        <v>861</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>6.239922046661377</v>
+        <v>5.318991661071777</v>
       </c>
       <c r="E84" t="n">
-        <v>-29.51078876652378</v>
+        <v>12.06940479261989</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>18.70757918938837</v>
+        <v>31.39168665420713</v>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I84" t="n">
-        <v>-43.28456979799116</v>
+        <v>-6.545465204570414</v>
       </c>
       <c r="J84" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M84" t="n">
-        <v>-2.203458411676849</v>
+        <v>18.8782000538964</v>
       </c>
       <c r="N84" t="n">
-        <v>48.21836795591214</v>
+        <v>19.32228186158725</v>
       </c>
       <c r="O84" t="n">
-        <v>27.30733035484693</v>
+        <v>6.808795261276513</v>
       </c>
       <c r="P84" t="n">
-        <v>-20.91103760106522</v>
+        <v>-12.51348660031073</v>
       </c>
     </row>
     <row r="85">
@@ -4577,47 +4577,47 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>970</v>
+        <v>919</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>4.105238437652588</v>
+        <v>6.239922046661377</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.31241891770872</v>
+        <v>-29.51078876652378</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>11.62238230883327</v>
+        <v>18.70757918938837</v>
       </c>
       <c r="H85" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>-48.54019668402273</v>
+        <v>-43.28456979799116</v>
       </c>
       <c r="J85" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M85" t="n">
-        <v>-11.08372925167396</v>
+        <v>-2.203458411676849</v>
       </c>
       <c r="N85" t="n">
-        <v>32.93480122654199</v>
+        <v>48.21836795591214</v>
       </c>
       <c r="O85" t="n">
-        <v>10.22868966603475</v>
+        <v>27.30733035484693</v>
       </c>
       <c r="P85" t="n">
-        <v>-22.70611156050723</v>
+        <v>-20.91103760106522</v>
       </c>
     </row>
     <row r="86">
@@ -4627,47 +4627,47 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>4.100183963775635</v>
+        <v>4.105238437652588</v>
       </c>
       <c r="E86" t="n">
-        <v>2.459392450657418</v>
+        <v>-21.31241891770872</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>11.75998404096232</v>
+        <v>11.62238230883327</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I86" t="n">
-        <v>-48.47675996170205</v>
+        <v>-48.54019668402273</v>
       </c>
       <c r="J86" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>-20.44205124280866</v>
+        <v>-11.08372925167396</v>
       </c>
       <c r="N86" t="n">
-        <v>9.300591590304901</v>
+        <v>32.93480122654199</v>
       </c>
       <c r="O86" t="n">
-        <v>-22.90144369346608</v>
+        <v>10.22868966603475</v>
       </c>
       <c r="P86" t="n">
-        <v>-32.20203528377098</v>
+        <v>-22.70611156050723</v>
       </c>
     </row>
     <row r="87">
@@ -4677,47 +4677,47 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1005</v>
+        <v>977</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>2.788099050521851</v>
+        <v>4.100183963775635</v>
       </c>
       <c r="E87" t="n">
-        <v>47.4395327230274</v>
+        <v>2.459392450657418</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>64.81497480764</v>
+        <v>11.75998404096232</v>
       </c>
       <c r="H87" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>-8.317200914215089</v>
+        <v>-48.47675996170205</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M87" t="n">
-        <v>11.02515919304848</v>
+        <v>-20.44205124280866</v>
       </c>
       <c r="N87" t="n">
-        <v>17.3754420846126</v>
+        <v>9.300591590304901</v>
       </c>
       <c r="O87" t="n">
-        <v>-36.41437352997892</v>
+        <v>-22.90144369346608</v>
       </c>
       <c r="P87" t="n">
-        <v>-53.78981561459152</v>
+        <v>-32.20203528377098</v>
       </c>
     </row>
     <row r="88">
@@ -4727,47 +4727,47 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>3.235705375671387</v>
+        <v>2.788099050521851</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.143234234720149</v>
+        <v>47.4395327230274</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>42.01554882839617</v>
+        <v>64.81497480764</v>
       </c>
       <c r="H88" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I88" t="n">
-        <v>-9.773037718299507</v>
+        <v>-8.317200914215089</v>
       </c>
       <c r="J88" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M88" t="n">
-        <v>10.62621375390781</v>
+        <v>11.02515919304848</v>
       </c>
       <c r="N88" t="n">
-        <v>48.15878306311632</v>
+        <v>17.3754420846126</v>
       </c>
       <c r="O88" t="n">
-        <v>16.76944798862796</v>
+        <v>-36.41437352997892</v>
       </c>
       <c r="P88" t="n">
-        <v>-31.38933507448836</v>
+        <v>-53.78981561459152</v>
       </c>
     </row>
     <row r="89">
@@ -4777,47 +4777,47 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1049</v>
+        <v>1021</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>3.705811023712158</v>
+        <v>3.235705375671387</v>
       </c>
       <c r="E89" t="n">
-        <v>12.50491369334874</v>
+        <v>-6.143234234720149</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>16.96428313727079</v>
+        <v>42.01554882839617</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>-22.87904368475426</v>
+        <v>-9.773037718299507</v>
       </c>
       <c r="J89" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="M89" t="n">
-        <v>0.8888847141706872</v>
+        <v>10.62621375390781</v>
       </c>
       <c r="N89" t="n">
-        <v>4.459369443922052</v>
+        <v>48.15878306311632</v>
       </c>
       <c r="O89" t="n">
-        <v>-11.61602897917805</v>
+        <v>16.76944798862796</v>
       </c>
       <c r="P89" t="n">
-        <v>-16.0753984231001</v>
+        <v>-31.38933507448836</v>
       </c>
     </row>
     <row r="90">
@@ -4827,47 +4827,47 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>4.127538681030273</v>
+        <v>3.705811023712158</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.348232155078121</v>
+        <v>12.50491369334874</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>4.446528355636995</v>
+        <v>16.96428313727079</v>
       </c>
       <c r="H90" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I90" t="n">
-        <v>-30.75880999353249</v>
+        <v>-22.87904368475426</v>
       </c>
       <c r="J90" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>-16.66666859209646</v>
+        <v>0.8888847141706872</v>
       </c>
       <c r="N90" t="n">
-        <v>5.794760510715117</v>
+        <v>4.459369443922052</v>
       </c>
       <c r="O90" t="n">
-        <v>-15.31843643701834</v>
+        <v>-11.61602897917805</v>
       </c>
       <c r="P90" t="n">
-        <v>-21.11319694773346</v>
+        <v>-16.0753984231001</v>
       </c>
     </row>
     <row r="91">
@@ -4877,47 +4877,47 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1077</v>
+        <v>1060</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>3.159971714019775</v>
+        <v>4.127538681030273</v>
       </c>
       <c r="E91" t="n">
-        <v>22.76628085265888</v>
+        <v>-1.348232155078121</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>37.53516333506305</v>
+        <v>4.446528355636995</v>
       </c>
       <c r="H91" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I91" t="n">
-        <v>-9.557516352352732</v>
+        <v>-30.75880999353249</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="M91" t="n">
-        <v>33.10450477829816</v>
+        <v>-16.66666859209646</v>
       </c>
       <c r="N91" t="n">
-        <v>14.76888248240417</v>
+        <v>5.794760510715117</v>
       </c>
       <c r="O91" t="n">
-        <v>10.33822392563928</v>
+        <v>-15.31843643701834</v>
       </c>
       <c r="P91" t="n">
-        <v>-4.430658556764882</v>
+        <v>-21.11319694773346</v>
       </c>
     </row>
     <row r="92">
@@ -4927,47 +4927,47 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1124</v>
+        <v>1077</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>4.130227565765381</v>
+        <v>3.159971714019775</v>
       </c>
       <c r="E92" t="n">
-        <v>-9.896712140725018</v>
+        <v>22.76628085265888</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>11.89683207039126</v>
+        <v>37.53516333506305</v>
       </c>
       <c r="H92" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I92" t="n">
-        <v>-18.22032240028947</v>
+        <v>-9.557516352352732</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="M92" t="n">
-        <v>-11.86440560558735</v>
+        <v>33.10450477829816</v>
       </c>
       <c r="N92" t="n">
-        <v>21.79354421111628</v>
+        <v>14.76888248240417</v>
       </c>
       <c r="O92" t="n">
-        <v>-1.967693464862327</v>
+        <v>10.33822392563928</v>
       </c>
       <c r="P92" t="n">
-        <v>-23.76123767597861</v>
+        <v>-4.430658556764882</v>
       </c>
     </row>
     <row r="93">
@@ -4977,47 +4977,47 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>3.791875123977661</v>
+        <v>4.130227565765381</v>
       </c>
       <c r="E93" t="n">
-        <v>13.80101088531091</v>
+        <v>-9.896712140725018</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>21.8814874510283</v>
+        <v>11.89683207039126</v>
       </c>
       <c r="H93" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I93" t="n">
-        <v>-4.769227778997061</v>
+        <v>-18.22032240028947</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="M93" t="n">
-        <v>-0.5653825068564891</v>
+        <v>-11.86440560558735</v>
       </c>
       <c r="N93" t="n">
-        <v>8.08047656571739</v>
+        <v>21.79354421111628</v>
       </c>
       <c r="O93" t="n">
-        <v>-14.3663933921674</v>
+        <v>-1.967693464862327</v>
       </c>
       <c r="P93" t="n">
-        <v>-22.44686995788479</v>
+        <v>-23.76123767597861</v>
       </c>
     </row>
     <row r="94">
@@ -5027,47 +5027,47 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1180</v>
+        <v>1133</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>3.917336940765381</v>
+        <v>3.791875123977661</v>
       </c>
       <c r="E94" t="n">
-        <v>46.79950740397341</v>
+        <v>13.80101088531091</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>55.72098592711367</v>
+        <v>21.8814874510283</v>
       </c>
       <c r="H94" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I94" t="n">
-        <v>-4.843752729266219</v>
+        <v>-4.769227778997061</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M94" t="n">
-        <v>35.93147671324954</v>
+        <v>-0.5653825068564891</v>
       </c>
       <c r="N94" t="n">
-        <v>8.921478523140252</v>
+        <v>8.08047656571739</v>
       </c>
       <c r="O94" t="n">
-        <v>-10.86803069072388</v>
+        <v>-14.3663933921674</v>
       </c>
       <c r="P94" t="n">
-        <v>-19.78950921386413</v>
+        <v>-22.44686995788479</v>
       </c>
     </row>
     <row r="95">
@@ -5077,47 +5077,47 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1217</v>
+        <v>1180</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>5.534584522247314</v>
+        <v>3.917336940765381</v>
       </c>
       <c r="E95" t="n">
-        <v>23.12960476407712</v>
+        <v>46.79950740397341</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>27.29025950982593</v>
+        <v>55.72098592711367</v>
       </c>
       <c r="H95" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I95" t="n">
-        <v>-6.544212070995356</v>
+        <v>-4.843752729266219</v>
       </c>
       <c r="J95" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M95" t="n">
-        <v>0.9184822947453942</v>
+        <v>35.93147671324954</v>
       </c>
       <c r="N95" t="n">
-        <v>4.160654745748808</v>
+        <v>8.921478523140252</v>
       </c>
       <c r="O95" t="n">
-        <v>-22.21112246933173</v>
+        <v>-10.86803069072388</v>
       </c>
       <c r="P95" t="n">
-        <v>-26.37177721508053</v>
+        <v>-19.78950921386413</v>
       </c>
     </row>
     <row r="96">
@@ -5127,47 +5127,47 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1240</v>
+        <v>1217</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>5.912109851837158</v>
+        <v>5.534584522247314</v>
       </c>
       <c r="E96" t="n">
-        <v>17.54956389003172</v>
+        <v>23.12960476407712</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>23.04425754441867</v>
+        <v>27.29025950982593</v>
       </c>
       <c r="H96" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I96" t="n">
-        <v>-2.62296435095365</v>
+        <v>-6.544212070995356</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M96" t="n">
-        <v>4.18090181684325</v>
+        <v>0.9184822947453942</v>
       </c>
       <c r="N96" t="n">
-        <v>5.494693654386957</v>
+        <v>4.160654745748808</v>
       </c>
       <c r="O96" t="n">
-        <v>-13.36866207318847</v>
+        <v>-22.21112246933173</v>
       </c>
       <c r="P96" t="n">
-        <v>-18.86335572757542</v>
+        <v>-26.37177721508053</v>
       </c>
     </row>
     <row r="97">
@@ -5177,47 +5177,47 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>6.570854187011719</v>
+        <v>5.912109851837158</v>
       </c>
       <c r="E97" t="n">
-        <v>19.0966380456427</v>
+        <v>17.54956389003172</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>21.98516778446719</v>
+        <v>23.04425754441867</v>
       </c>
       <c r="H97" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I97" t="n">
-        <v>-5.29157407134678</v>
+        <v>-2.62296435095365</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M97" t="n">
-        <v>15.65260869312805</v>
+        <v>4.18090181684325</v>
       </c>
       <c r="N97" t="n">
-        <v>2.888529738824491</v>
+        <v>5.494693654386957</v>
       </c>
       <c r="O97" t="n">
-        <v>-3.444029352514645</v>
+        <v>-13.36866207318847</v>
       </c>
       <c r="P97" t="n">
-        <v>-6.332559091339137</v>
+        <v>-18.86335572757542</v>
       </c>
     </row>
     <row r="98">
@@ -5227,47 +5227,47 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1312</v>
+        <v>1260</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>7.825666427612305</v>
+        <v>6.570854187011719</v>
       </c>
       <c r="E98" t="n">
-        <v>5.952066134636866</v>
+        <v>19.0966380456427</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>12.86727349465565</v>
+        <v>21.98516778446719</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I98" t="n">
-        <v>-10.5250928512756</v>
+        <v>-5.29157407134678</v>
       </c>
       <c r="J98" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M98" t="n">
-        <v>2.383397803945158</v>
+        <v>15.65260869312805</v>
       </c>
       <c r="N98" t="n">
-        <v>6.915207360018785</v>
+        <v>2.888529738824491</v>
       </c>
       <c r="O98" t="n">
-        <v>-3.568668330691708</v>
+        <v>-3.444029352514645</v>
       </c>
       <c r="P98" t="n">
-        <v>-10.48387569071049</v>
+        <v>-6.332559091339137</v>
       </c>
     </row>
     <row r="99">
@@ -5277,47 +5277,47 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>8.27826976776123</v>
+        <v>7.825666427612305</v>
       </c>
       <c r="E99" t="n">
-        <v>18.61354235607942</v>
+        <v>5.952066134636866</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>21.40713029910215</v>
+        <v>12.86727349465565</v>
       </c>
       <c r="H99" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I99" t="n">
-        <v>-15.41701386510112</v>
+        <v>-10.5250928512756</v>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M99" t="n">
-        <v>10.46172438005413</v>
+        <v>2.383397803945158</v>
       </c>
       <c r="N99" t="n">
-        <v>2.793587943022729</v>
+        <v>6.915207360018785</v>
       </c>
       <c r="O99" t="n">
-        <v>-8.151817976025283</v>
+        <v>-3.568668330691708</v>
       </c>
       <c r="P99" t="n">
-        <v>-10.94540591904801</v>
+        <v>-10.48387569071049</v>
       </c>
     </row>
     <row r="100">
@@ -5327,47 +5327,47 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1373</v>
+        <v>1333</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>9.485526084899902</v>
+        <v>8.27826976776123</v>
       </c>
       <c r="E100" t="n">
-        <v>-19.46326747799056</v>
+        <v>18.61354235607942</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>8.992804103726968</v>
+        <v>21.40713029910215</v>
       </c>
       <c r="H100" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I100" t="n">
-        <v>-26.45903673414248</v>
+        <v>-15.41701386510112</v>
       </c>
       <c r="J100" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M100" t="n">
-        <v>2.637916932888075</v>
+        <v>10.46172438005413</v>
       </c>
       <c r="N100" t="n">
-        <v>28.45607158171752</v>
+        <v>2.793587943022729</v>
       </c>
       <c r="O100" t="n">
-        <v>22.10118441087863</v>
+        <v>-8.151817976025283</v>
       </c>
       <c r="P100" t="n">
-        <v>-6.354887170838893</v>
+        <v>-10.94540591904801</v>
       </c>
     </row>
     <row r="101">
@@ -5377,47 +5377,47 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>9.819149017333984</v>
+        <v>9.485526084899902</v>
       </c>
       <c r="E101" t="n">
-        <v>-24.58128418033815</v>
+        <v>-19.46326747799056</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>5.28958105913245</v>
+        <v>8.992804103726968</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I101" t="n">
-        <v>-28.95772086404726</v>
+        <v>-26.45903673414248</v>
       </c>
       <c r="J101" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M101" t="n">
-        <v>-10.74776294457992</v>
+        <v>2.637916932888075</v>
       </c>
       <c r="N101" t="n">
-        <v>29.8708652394706</v>
+        <v>28.45607158171752</v>
       </c>
       <c r="O101" t="n">
-        <v>13.83352123575823</v>
+        <v>22.10118441087863</v>
       </c>
       <c r="P101" t="n">
-        <v>-16.03734400371237</v>
+        <v>-6.354887170838893</v>
       </c>
     </row>
     <row r="102">
@@ -5427,47 +5427,47 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>9.070772171020508</v>
+        <v>9.819149017333984</v>
       </c>
       <c r="E102" t="n">
-        <v>-10.92867144395448</v>
+        <v>-24.58128418033815</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>8.3756372267875</v>
+        <v>5.28958105913245</v>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>-23.34333064352914</v>
+        <v>-28.95772086404726</v>
       </c>
       <c r="J102" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M102" t="n">
-        <v>-20.67925584830152</v>
+        <v>-10.74776294457992</v>
       </c>
       <c r="N102" t="n">
-        <v>19.30430867074198</v>
+        <v>29.8708652394706</v>
       </c>
       <c r="O102" t="n">
-        <v>-9.750584404347041</v>
+        <v>13.83352123575823</v>
       </c>
       <c r="P102" t="n">
-        <v>-29.05489307508902</v>
+        <v>-16.03734400371237</v>
       </c>
     </row>
     <row r="103">
@@ -5477,47 +5477,47 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1449</v>
+        <v>1406</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>7.184381484985352</v>
+        <v>9.070772171020508</v>
       </c>
       <c r="E103" t="n">
-        <v>24.10225436955838</v>
+        <v>-10.92867144395448</v>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>31.55587931951765</v>
+        <v>8.3756372267875</v>
       </c>
       <c r="H103" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="I103" t="n">
-        <v>-3.936181645264234</v>
+        <v>-23.34333064352914</v>
       </c>
       <c r="J103" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M103" t="n">
-        <v>10.03304629933217</v>
+        <v>-20.67925584830152</v>
       </c>
       <c r="N103" t="n">
-        <v>7.45362494995927</v>
+        <v>19.30430867074198</v>
       </c>
       <c r="O103" t="n">
-        <v>-14.06920807022621</v>
+        <v>-9.750584404347041</v>
       </c>
       <c r="P103" t="n">
-        <v>-21.52283302018548</v>
+        <v>-29.05489307508902</v>
       </c>
     </row>
     <row r="104">
@@ -5527,47 +5527,47 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1473</v>
+        <v>1449</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>7.826626300811768</v>
+        <v>7.184381484985352</v>
       </c>
       <c r="E104" t="n">
-        <v>27.66260956979339</v>
+        <v>24.10225436955838</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>30.57940709789834</v>
+        <v>31.55587931951765</v>
       </c>
       <c r="H104" t="n">
         <v>49</v>
       </c>
       <c r="I104" t="n">
-        <v>-11.81907868870944</v>
+        <v>-3.936181645264234</v>
       </c>
       <c r="J104" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M104" t="n">
-        <v>-5.035962500666367</v>
+        <v>10.03304629933217</v>
       </c>
       <c r="N104" t="n">
-        <v>2.916797528104947</v>
+        <v>7.45362494995927</v>
       </c>
       <c r="O104" t="n">
-        <v>-32.69857207045975</v>
+        <v>-14.06920807022621</v>
       </c>
       <c r="P104" t="n">
-        <v>-35.6153695985647</v>
+        <v>-21.52283302018548</v>
       </c>
     </row>
     <row r="105">
@@ -5577,47 +5577,47 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>7.376174926757812</v>
+        <v>7.826626300811768</v>
       </c>
       <c r="E105" t="n">
-        <v>38.25517681860967</v>
+        <v>27.66260956979339</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>47.14781024008558</v>
+        <v>30.57940709789834</v>
       </c>
       <c r="H105" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I105" t="n">
-        <v>-3.762271146765783</v>
+        <v>-11.81907868870944</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M105" t="n">
-        <v>15.24044279641296</v>
+        <v>-5.035962500666367</v>
       </c>
       <c r="N105" t="n">
-        <v>8.892633421475914</v>
+        <v>2.916797528104947</v>
       </c>
       <c r="O105" t="n">
-        <v>-23.01473402219671</v>
+        <v>-32.69857207045975</v>
       </c>
       <c r="P105" t="n">
-        <v>-31.90736744367263</v>
+        <v>-35.6153695985647</v>
       </c>
     </row>
     <row r="106">
@@ -5627,47 +5627,47 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>8.573684692382812</v>
+        <v>7.376174926757812</v>
       </c>
       <c r="E106" t="n">
-        <v>18.54132740685372</v>
+        <v>38.25517681860967</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>29.62664685654816</v>
+        <v>47.14781024008558</v>
       </c>
       <c r="H106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I106" t="n">
-        <v>-6.65397705824835</v>
+        <v>-3.762271146765783</v>
       </c>
       <c r="J106" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M106" t="n">
-        <v>-1.140669354049316</v>
+        <v>15.24044279641296</v>
       </c>
       <c r="N106" t="n">
-        <v>11.08531944969444</v>
+        <v>8.892633421475914</v>
       </c>
       <c r="O106" t="n">
-        <v>-19.68199676090303</v>
+        <v>-23.01473402219671</v>
       </c>
       <c r="P106" t="n">
-        <v>-30.76731621059747</v>
+        <v>-31.90736744367263</v>
       </c>
     </row>
     <row r="107">
@@ -5677,47 +5677,47 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>8.752984046936035</v>
+        <v>8.573684692382812</v>
       </c>
       <c r="E107" t="n">
-        <v>19.40845717702516</v>
+        <v>18.54132740685372</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>26.97132679773765</v>
+        <v>29.62664685654816</v>
       </c>
       <c r="H107" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.374322888667265</v>
+        <v>-6.65397705824835</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="M107" t="n">
-        <v>10.78236846586721</v>
+        <v>-1.140669354049316</v>
       </c>
       <c r="N107" t="n">
-        <v>7.562869620712497</v>
+        <v>11.08531944969444</v>
       </c>
       <c r="O107" t="n">
-        <v>-8.626088711157944</v>
+        <v>-19.68199676090303</v>
       </c>
       <c r="P107" t="n">
-        <v>-16.18895833187044</v>
+        <v>-30.76731621059747</v>
       </c>
     </row>
     <row r="108">
@@ -5727,47 +5727,47 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1563</v>
+        <v>1517</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>10.23971176147461</v>
+        <v>8.752984046936035</v>
       </c>
       <c r="E108" t="n">
-        <v>-10.39349858937912</v>
+        <v>19.40845717702516</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>11.18476475902343</v>
+        <v>26.97132679773765</v>
       </c>
       <c r="H108" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I108" t="n">
-        <v>-24.76672515820801</v>
+        <v>-2.374322888667265</v>
       </c>
       <c r="J108" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="M108" t="n">
-        <v>-3.313971833777338</v>
+        <v>10.78236846586721</v>
       </c>
       <c r="N108" t="n">
-        <v>21.57826334840255</v>
+        <v>7.562869620712497</v>
       </c>
       <c r="O108" t="n">
-        <v>7.079526755601782</v>
+        <v>-8.626088711157944</v>
       </c>
       <c r="P108" t="n">
-        <v>-14.49873659280077</v>
+        <v>-16.18895833187044</v>
       </c>
     </row>
     <row r="109">
@@ -5777,47 +5777,47 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>10.42635250091553</v>
+        <v>10.23971176147461</v>
       </c>
       <c r="E109" t="n">
-        <v>-12.49755895618178</v>
+        <v>-10.39349858937912</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>9.194461178997106</v>
+        <v>11.18476475902343</v>
       </c>
       <c r="H109" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I109" t="n">
-        <v>-26.11346593316271</v>
+        <v>-24.76672515820801</v>
       </c>
       <c r="J109" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M109" t="n">
-        <v>-11.53384629020336</v>
+        <v>-3.313971833777338</v>
       </c>
       <c r="N109" t="n">
-        <v>21.69202013517889</v>
+        <v>21.57826334840255</v>
       </c>
       <c r="O109" t="n">
-        <v>0.9637126659784201</v>
+        <v>7.079526755601782</v>
       </c>
       <c r="P109" t="n">
-        <v>-20.72830746920047</v>
+        <v>-14.49873659280077</v>
       </c>
     </row>
     <row r="110">
@@ -5827,47 +5827,47 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1612</v>
+        <v>1568</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>9.462178230285645</v>
+        <v>10.42635250091553</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.021132629691771</v>
+        <v>-12.49755895618178</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>18.16951420972623</v>
+        <v>9.194461178997106</v>
       </c>
       <c r="H110" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>-10.00918213365467</v>
+        <v>-26.11346593316271</v>
       </c>
       <c r="J110" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M110" t="n">
-        <v>-7.805327514235554</v>
+        <v>-11.53384629020336</v>
       </c>
       <c r="N110" t="n">
-        <v>20.190646839418</v>
+        <v>21.69202013517889</v>
       </c>
       <c r="O110" t="n">
-        <v>-5.784194884543783</v>
+        <v>0.9637126659784201</v>
       </c>
       <c r="P110" t="n">
-        <v>-25.97484172396178</v>
+        <v>-20.72830746920047</v>
       </c>
     </row>
     <row r="111">
@@ -5877,47 +5877,47 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1630</v>
+        <v>1612</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>9.130017280578612</v>
+        <v>9.462178230285645</v>
       </c>
       <c r="E111" t="n">
-        <v>-4.018178481325078</v>
+        <v>-2.021132629691771</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>22.4686624873332</v>
+        <v>18.16951420972623</v>
       </c>
       <c r="H111" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I111" t="n">
-        <v>-9.674121963751835</v>
+        <v>-10.00918213365467</v>
       </c>
       <c r="J111" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M111" t="n">
-        <v>-2.065688085162414</v>
+        <v>-7.805327514235554</v>
       </c>
       <c r="N111" t="n">
-        <v>26.48684096865828</v>
+        <v>20.190646839418</v>
       </c>
       <c r="O111" t="n">
-        <v>1.952490396162665</v>
+        <v>-5.784194884543783</v>
       </c>
       <c r="P111" t="n">
-        <v>-24.53435057249561</v>
+        <v>-25.97484172396178</v>
       </c>
     </row>
     <row r="112">
@@ -5927,47 +5927,47 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1664</v>
+        <v>1630</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>9.27093505859375</v>
+        <v>9.130017280578612</v>
       </c>
       <c r="E112" t="n">
-        <v>14.00601566871852</v>
+        <v>-4.018178481325078</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>28.0790302965346</v>
+        <v>22.4686624873332</v>
       </c>
       <c r="H112" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I112" t="n">
-        <v>-11.04707107295045</v>
+        <v>-9.674121963751835</v>
       </c>
       <c r="J112" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M112" t="n">
-        <v>12.91741416768162</v>
+        <v>-2.065688085162414</v>
       </c>
       <c r="N112" t="n">
-        <v>14.07301462781608</v>
+        <v>26.48684096865828</v>
       </c>
       <c r="O112" t="n">
-        <v>-1.088601501036898</v>
+        <v>1.952490396162665</v>
       </c>
       <c r="P112" t="n">
-        <v>-15.16161612885297</v>
+        <v>-24.53435057249561</v>
       </c>
     </row>
     <row r="113">
@@ -5977,40 +5977,48 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1716</v>
+        <v>1664</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>10.56942367553711</v>
+        <v>9.27093505859375</v>
       </c>
       <c r="E113" t="n">
-        <v>17.55272383153638</v>
+        <v>14.00601566871852</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>34.24887159007292</v>
+        <v>28.0790302965346</v>
       </c>
       <c r="H113" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I113" t="n">
-        <v>-2.864590835653763</v>
+        <v>-11.04707107295045</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K113" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>45</v>
+      </c>
+      <c r="M113" t="n">
+        <v>12.91741416768162</v>
+      </c>
       <c r="N113" t="n">
-        <v>16.69614775853653</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+        <v>14.07301462781608</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-1.088601501036898</v>
+      </c>
+      <c r="P113" t="n">
+        <v>-15.16161612885297</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6019,48 +6027,40 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1772</v>
+        <v>1716</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>12.44351387023926</v>
+        <v>10.56942367553711</v>
       </c>
       <c r="E114" t="n">
-        <v>50.06812553983496</v>
+        <v>17.55272383153638</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>53.74357475814191</v>
+        <v>34.24887159007292</v>
       </c>
       <c r="H114" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I114" t="n">
-        <v>-2.577704395224029</v>
+        <v>-2.864590835653763</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
       </c>
       <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>29</v>
-      </c>
-      <c r="M114" t="n">
-        <v>8.438745643958409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
-        <v>3.675449218306952</v>
-      </c>
-      <c r="O114" t="n">
-        <v>-41.62937989587655</v>
-      </c>
-      <c r="P114" t="n">
-        <v>-45.30482911418351</v>
-      </c>
+        <v>16.69614775853653</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6069,90 +6069,90 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1803</v>
+        <v>1772</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>14.32676410675049</v>
+        <v>12.44351387023926</v>
       </c>
       <c r="E115" t="n">
-        <v>63.5901693044413</v>
+        <v>50.06812553983496</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>69.31202984070572</v>
+        <v>53.74357475814191</v>
       </c>
       <c r="H115" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I115" t="n">
-        <v>-4.211230700765102</v>
+        <v>-2.577704395224029</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>29</v>
+      </c>
+      <c r="M115" t="n">
+        <v>8.438745643958409</v>
+      </c>
       <c r="N115" t="n">
-        <v>5.721860536264415</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+        <v>3.675449218306952</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-41.62937989587655</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-45.30482911418351</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>twelve_bar_breakout</t>
+          <t>downtrend_reversal</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>48</v>
+        <v>1803</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>0.7676036953926086</v>
+        <v>14.32676410675049</v>
       </c>
       <c r="E116" t="n">
-        <v>25.15143940719289</v>
+        <v>63.5901693044413</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>32.50518852478851</v>
+        <v>69.31202984070572</v>
       </c>
       <c r="H116" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I116" t="n">
-        <v>-7.017533652335215</v>
+        <v>-4.211230700765102</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="n">
-        <v>44</v>
-      </c>
-      <c r="M116" t="n">
-        <v>22.42088270823692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.353749117595619</v>
-      </c>
-      <c r="O116" t="n">
-        <v>-2.730556698955972</v>
-      </c>
-      <c r="P116" t="n">
-        <v>-10.08430581655159</v>
-      </c>
+        <v>5.721860536264415</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6161,47 +6161,47 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>1.343361735343933</v>
+        <v>0.7676036953926086</v>
       </c>
       <c r="E117" t="n">
-        <v>-26.20886534530547</v>
+        <v>25.15143940719289</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>4.315299321272838e-07</v>
+        <v>32.50518852478851</v>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I117" t="n">
-        <v>-26.20886534530547</v>
+        <v>-7.017533652335215</v>
       </c>
       <c r="J117" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M117" t="n">
-        <v>-12.50000998319717</v>
+        <v>22.42088270823692</v>
       </c>
       <c r="N117" t="n">
-        <v>26.20886577683541</v>
+        <v>7.353749117595619</v>
       </c>
       <c r="O117" t="n">
-        <v>13.7088553621083</v>
+        <v>-2.730556698955972</v>
       </c>
       <c r="P117" t="n">
-        <v>-12.5000104147271</v>
+        <v>-10.08430581655159</v>
       </c>
     </row>
     <row r="118">
@@ -6211,29 +6211,29 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>1.014959096908569</v>
+        <v>1.343361735343933</v>
       </c>
       <c r="E118" t="n">
-        <v>11.91876669437761</v>
+        <v>-26.20886534530547</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>22.21204898317303</v>
+        <v>4.315299321272838e-07</v>
       </c>
       <c r="H118" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-26.20886534530547</v>
+      </c>
+      <c r="J118" t="n">
         <v>52</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-4.074359966184442</v>
-      </c>
-      <c r="J118" t="n">
-        <v>13</v>
       </c>
       <c r="K118" t="b">
         <v>1</v>
@@ -6242,16 +6242,16 @@
         <v>9</v>
       </c>
       <c r="M118" t="n">
-        <v>-4.07435013050124</v>
+        <v>-12.50000998319717</v>
       </c>
       <c r="N118" t="n">
-        <v>10.29328228879542</v>
+        <v>26.20886577683541</v>
       </c>
       <c r="O118" t="n">
-        <v>-15.99311682487885</v>
+        <v>13.7088553621083</v>
       </c>
       <c r="P118" t="n">
-        <v>-26.28639911367427</v>
+        <v>-12.5000104147271</v>
       </c>
     </row>
     <row r="119">
@@ -6261,40 +6261,48 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>1.19562828540802</v>
+        <v>1.014959096908569</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.9354058668207696</v>
+        <v>11.91876669437761</v>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>3.744811310630002</v>
+        <v>22.21204898317303</v>
       </c>
       <c r="H119" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I119" t="n">
-        <v>-18.99509125785658</v>
+        <v>-4.074359966184442</v>
       </c>
       <c r="J119" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="K119" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>9</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-4.07435013050124</v>
+      </c>
       <c r="N119" t="n">
-        <v>4.680217177450771</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+        <v>10.29328228879542</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-15.99311682487885</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-26.28639911367427</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6303,29 +6311,29 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>1.184444308280945</v>
+        <v>1.19562828540802</v>
       </c>
       <c r="E120" t="n">
-        <v>30.54017884146472</v>
+        <v>-0.9354058668207696</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>30.54017884146472</v>
+        <v>3.744811310630002</v>
       </c>
       <c r="H120" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I120" t="n">
-        <v>-6.784648857431518</v>
+        <v>-18.99509125785658</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -6333,7 +6341,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>4.680217177450771</v>
       </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
@@ -6345,48 +6353,40 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>731</v>
+        <v>378</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>2.348884582519531</v>
+        <v>1.184444308280945</v>
       </c>
       <c r="E121" t="n">
-        <v>37.51399724886561</v>
+        <v>30.54017884146472</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>51.16652747440254</v>
+        <v>30.54017884146472</v>
       </c>
       <c r="H121" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I121" t="n">
-        <v>-3.435155830715929</v>
+        <v>-6.784648857431518</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="n">
-        <v>32</v>
-      </c>
-      <c r="M121" t="n">
-        <v>13.62285544688882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
-        <v>13.65253022553693</v>
-      </c>
-      <c r="O121" t="n">
-        <v>-23.89114180197679</v>
-      </c>
-      <c r="P121" t="n">
-        <v>-37.54367202751372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6395,47 +6395,47 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>2.371296882629395</v>
+        <v>2.348884582519531</v>
       </c>
       <c r="E122" t="n">
-        <v>44.24999547554077</v>
+        <v>37.51399724886561</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>49.73777782894884</v>
+        <v>51.16652747440254</v>
       </c>
       <c r="H122" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I122" t="n">
-        <v>-3.780705651870039</v>
+        <v>-3.435155830715929</v>
       </c>
       <c r="J122" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K122" t="b">
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M122" t="n">
-        <v>12.54894962165466</v>
+        <v>13.62285544688882</v>
       </c>
       <c r="N122" t="n">
-        <v>5.487782353408065</v>
+        <v>13.65253022553693</v>
       </c>
       <c r="O122" t="n">
-        <v>-31.70104585388611</v>
+        <v>-23.89114180197679</v>
       </c>
       <c r="P122" t="n">
-        <v>-37.18882820729417</v>
+        <v>-37.54367202751372</v>
       </c>
     </row>
     <row r="123">
@@ -6445,47 +6445,47 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>2.510258197784424</v>
+        <v>2.371296882629395</v>
       </c>
       <c r="E123" t="n">
-        <v>44.41093208656724</v>
+        <v>44.24999547554077</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>44.9663659079942</v>
+        <v>49.73777782894884</v>
       </c>
       <c r="H123" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I123" t="n">
-        <v>-9.107153623519396</v>
+        <v>-3.780705651870039</v>
       </c>
       <c r="J123" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K123" t="b">
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M123" t="n">
-        <v>6.318534729455038</v>
+        <v>12.54894962165466</v>
       </c>
       <c r="N123" t="n">
-        <v>0.5554338214269592</v>
+        <v>5.487782353408065</v>
       </c>
       <c r="O123" t="n">
-        <v>-38.0923973571122</v>
+        <v>-31.70104585388611</v>
       </c>
       <c r="P123" t="n">
-        <v>-38.64783117853916</v>
+        <v>-37.18882820729417</v>
       </c>
     </row>
     <row r="124">
@@ -6495,47 +6495,47 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>2.824515819549561</v>
+        <v>2.510258197784424</v>
       </c>
       <c r="E124" t="n">
-        <v>36.02892677716441</v>
+        <v>44.41093208656724</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>42.36354873080582</v>
+        <v>44.9663659079942</v>
       </c>
       <c r="H124" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I124" t="n">
-        <v>-6.645068344382489</v>
+        <v>-9.107153623519396</v>
       </c>
       <c r="J124" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K124" t="b">
         <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M124" t="n">
-        <v>-5.510540414107413</v>
+        <v>6.318534729455038</v>
       </c>
       <c r="N124" t="n">
-        <v>6.33462195364141</v>
+        <v>0.5554338214269592</v>
       </c>
       <c r="O124" t="n">
-        <v>-41.53946719127183</v>
+        <v>-38.0923973571122</v>
       </c>
       <c r="P124" t="n">
-        <v>-47.87408914491323</v>
+        <v>-38.64783117853916</v>
       </c>
     </row>
     <row r="125">
@@ -6545,47 +6545,47 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>3.457776308059692</v>
+        <v>2.824515819549561</v>
       </c>
       <c r="E125" t="n">
-        <v>24.02685933531523</v>
+        <v>36.02892677716441</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>25.40801741438535</v>
+        <v>42.36354873080582</v>
       </c>
       <c r="H125" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I125" t="n">
-        <v>-9.677454318276887</v>
+        <v>-6.645068344382489</v>
       </c>
       <c r="J125" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K125" t="b">
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M125" t="n">
-        <v>-8.602172038614173</v>
+        <v>-5.510540414107413</v>
       </c>
       <c r="N125" t="n">
-        <v>1.381158079070126</v>
+        <v>6.33462195364141</v>
       </c>
       <c r="O125" t="n">
-        <v>-32.6290313739294</v>
+        <v>-41.53946719127183</v>
       </c>
       <c r="P125" t="n">
-        <v>-34.01018945299953</v>
+        <v>-47.87408914491323</v>
       </c>
     </row>
     <row r="126">
@@ -6595,40 +6595,48 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>3.801693916320801</v>
+        <v>3.457776308059692</v>
       </c>
       <c r="E126" t="n">
-        <v>28.76063782418318</v>
+        <v>24.02685933531523</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>31.64988051432828</v>
+        <v>25.40801741438535</v>
       </c>
       <c r="H126" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I126" t="n">
-        <v>-6.738390586590078</v>
+        <v>-9.677454318276887</v>
       </c>
       <c r="J126" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K126" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-8.602172038614173</v>
+      </c>
       <c r="N126" t="n">
-        <v>2.8892426901451</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+        <v>1.381158079070126</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-32.6290313739294</v>
+      </c>
+      <c r="P126" t="n">
+        <v>-34.01018945299953</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6637,48 +6645,40 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>4.143502712249756</v>
+        <v>3.801693916320801</v>
       </c>
       <c r="E127" t="n">
-        <v>23.11798475295918</v>
+        <v>28.76063782418318</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>34.08775397216468</v>
+        <v>31.64988051432828</v>
       </c>
       <c r="H127" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I127" t="n">
-        <v>-7.563634649997478</v>
+        <v>-6.738390586590078</v>
       </c>
       <c r="J127" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="n">
-        <v>44</v>
-      </c>
-      <c r="M127" t="n">
-        <v>24.63507049555472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
-        <v>10.9697692192055</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.517085742595544</v>
-      </c>
-      <c r="P127" t="n">
-        <v>-9.452683476609955</v>
-      </c>
+        <v>2.8892426901451</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6687,47 +6687,47 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>5.053043365478516</v>
+        <v>4.143502712249756</v>
       </c>
       <c r="E128" t="n">
-        <v>29.29964140794564</v>
+        <v>23.11798475295918</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>38.30700334425126</v>
+        <v>34.08775397216468</v>
       </c>
       <c r="H128" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I128" t="n">
-        <v>-2.679445001844085</v>
+        <v>-7.563634649997478</v>
       </c>
       <c r="J128" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K128" t="b">
         <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M128" t="n">
-        <v>2.200934226667925</v>
+        <v>24.63507049555472</v>
       </c>
       <c r="N128" t="n">
-        <v>9.007361936305614</v>
+        <v>10.9697692192055</v>
       </c>
       <c r="O128" t="n">
-        <v>-27.09870718127772</v>
+        <v>1.517085742595544</v>
       </c>
       <c r="P128" t="n">
-        <v>-36.10606911758333</v>
+        <v>-9.452683476609955</v>
       </c>
     </row>
     <row r="129">
@@ -6737,47 +6737,47 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>5.778359413146973</v>
+        <v>5.053043365478516</v>
       </c>
       <c r="E129" t="n">
-        <v>14.34000616268329</v>
+        <v>29.29964140794564</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>20.9463163640887</v>
+        <v>38.30700334425126</v>
       </c>
       <c r="H129" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I129" t="n">
-        <v>-10.22192629657919</v>
+        <v>-2.679445001844085</v>
       </c>
       <c r="J129" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="K129" t="b">
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M129" t="n">
-        <v>9.427626348623356</v>
+        <v>2.200934226667925</v>
       </c>
       <c r="N129" t="n">
-        <v>6.606310201405412</v>
+        <v>9.007361936305614</v>
       </c>
       <c r="O129" t="n">
-        <v>-4.91237981405993</v>
+        <v>-27.09870718127772</v>
       </c>
       <c r="P129" t="n">
-        <v>-11.51869001546534</v>
+        <v>-36.10606911758333</v>
       </c>
     </row>
     <row r="130">
@@ -6787,47 +6787,47 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>6.264392852783203</v>
+        <v>5.778359413146973</v>
       </c>
       <c r="E130" t="n">
-        <v>13.41271595623603</v>
+        <v>14.34000616268329</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>18.24386782520656</v>
+        <v>20.9463163640887</v>
       </c>
       <c r="H130" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I130" t="n">
-        <v>-17.18750891431077</v>
+        <v>-10.22192629657919</v>
       </c>
       <c r="J130" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K130" t="b">
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M130" t="n">
-        <v>0.9375001902966374</v>
+        <v>9.427626348623356</v>
       </c>
       <c r="N130" t="n">
-        <v>4.83115186897053</v>
+        <v>6.606310201405412</v>
       </c>
       <c r="O130" t="n">
-        <v>-12.4752157659394</v>
+        <v>-4.91237981405993</v>
       </c>
       <c r="P130" t="n">
-        <v>-17.30636763490993</v>
+        <v>-11.51869001546534</v>
       </c>
     </row>
     <row r="131">
@@ -6837,47 +6837,47 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1024</v>
+        <v>876</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>3.67791748046875</v>
+        <v>6.264392852783203</v>
       </c>
       <c r="E131" t="n">
-        <v>-20.46934897691631</v>
+        <v>13.41271595623603</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>24.94039825885327</v>
+        <v>18.24386782520656</v>
       </c>
       <c r="H131" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I131" t="n">
-        <v>-22.29414370765255</v>
+        <v>-17.18750891431077</v>
       </c>
       <c r="J131" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K131" t="b">
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M131" t="n">
-        <v>-2.674859771984268</v>
+        <v>0.9375001902966374</v>
       </c>
       <c r="N131" t="n">
-        <v>45.40974723576958</v>
+        <v>4.83115186897053</v>
       </c>
       <c r="O131" t="n">
-        <v>17.79448920493205</v>
+        <v>-12.4752157659394</v>
       </c>
       <c r="P131" t="n">
-        <v>-27.61525803083753</v>
+        <v>-17.30636763490993</v>
       </c>
     </row>
     <row r="132">
@@ -6887,47 +6887,47 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>4.271289348602295</v>
+        <v>3.67791748046875</v>
       </c>
       <c r="E132" t="n">
-        <v>-15.7793102416589</v>
+        <v>-20.46934897691631</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>7.583550836548659</v>
+        <v>24.94039825885327</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I132" t="n">
-        <v>-33.08912912542834</v>
+        <v>-22.29414370765255</v>
       </c>
       <c r="J132" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K132" t="b">
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M132" t="n">
-        <v>-16.19536741269341</v>
+        <v>-2.674859771984268</v>
       </c>
       <c r="N132" t="n">
-        <v>23.36286107820756</v>
+        <v>45.40974723576958</v>
       </c>
       <c r="O132" t="n">
-        <v>-0.4160571710345149</v>
+        <v>17.79448920493205</v>
       </c>
       <c r="P132" t="n">
-        <v>-23.77891824924207</v>
+        <v>-27.61525803083753</v>
       </c>
     </row>
     <row r="133">
@@ -6937,47 +6937,47 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>4.002276420593262</v>
+        <v>4.271289348602295</v>
       </c>
       <c r="E133" t="n">
-        <v>-4.116791062291696</v>
+        <v>-15.7793102416589</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>8.30024822884117</v>
+        <v>7.583550836548659</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-28.5917163038185</v>
+        <v>-33.08912912542834</v>
       </c>
       <c r="J133" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K133" t="b">
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M133" t="n">
-        <v>-14.05852253596941</v>
+        <v>-16.19536741269341</v>
       </c>
       <c r="N133" t="n">
-        <v>12.41703929113287</v>
+        <v>23.36286107820756</v>
       </c>
       <c r="O133" t="n">
-        <v>-9.941731473677713</v>
+        <v>-0.4160571710345149</v>
       </c>
       <c r="P133" t="n">
-        <v>-22.35877076481058</v>
+        <v>-23.77891824924207</v>
       </c>
     </row>
     <row r="134">
@@ -6987,47 +6987,47 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1089</v>
+        <v>1054</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>3.734568357467651</v>
+        <v>4.002276420593262</v>
       </c>
       <c r="E134" t="n">
-        <v>10.11406790703346</v>
+        <v>-4.116791062291696</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>16.37415203629821</v>
+        <v>8.30024822884117</v>
       </c>
       <c r="H134" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>-9.556166493424314</v>
+        <v>-28.5917163038185</v>
       </c>
       <c r="J134" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K134" t="b">
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M134" t="n">
-        <v>12.6251898072736</v>
+        <v>-14.05852253596941</v>
       </c>
       <c r="N134" t="n">
-        <v>6.260084129264747</v>
+        <v>12.41703929113287</v>
       </c>
       <c r="O134" t="n">
-        <v>2.511121900240138</v>
+        <v>-9.941731473677713</v>
       </c>
       <c r="P134" t="n">
-        <v>-3.74896222902461</v>
+        <v>-22.35877076481058</v>
       </c>
     </row>
     <row r="135">
@@ -7037,47 +7037,47 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1142</v>
+        <v>1089</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>4.070505142211914</v>
+        <v>3.734568357467651</v>
       </c>
       <c r="E135" t="n">
-        <v>7.434995363421967</v>
+        <v>10.11406790703346</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>18.02503745454754</v>
+        <v>16.37415203629821</v>
       </c>
       <c r="H135" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I135" t="n">
-        <v>-9.176209906365363</v>
+        <v>-9.556166493424314</v>
       </c>
       <c r="J135" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K135" t="b">
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M135" t="n">
-        <v>-7.371778351421219</v>
+        <v>12.6251898072736</v>
       </c>
       <c r="N135" t="n">
-        <v>10.59004209112557</v>
+        <v>6.260084129264747</v>
       </c>
       <c r="O135" t="n">
-        <v>-14.80677371484319</v>
+        <v>2.511121900240138</v>
       </c>
       <c r="P135" t="n">
-        <v>-25.39681580596876</v>
+        <v>-3.74896222902461</v>
       </c>
     </row>
     <row r="136">
@@ -7087,47 +7087,47 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1166</v>
+        <v>1142</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>4.457189083099365</v>
+        <v>4.070505142211914</v>
       </c>
       <c r="E136" t="n">
-        <v>22.31876597168219</v>
+        <v>7.434995363421967</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>26.45307103741026</v>
+        <v>18.02503745454754</v>
       </c>
       <c r="H136" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I136" t="n">
-        <v>-17.05563804480998</v>
+        <v>-9.176209906365363</v>
       </c>
       <c r="J136" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K136" t="b">
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M136" t="n">
-        <v>-15.40775015263598</v>
+        <v>-7.371778351421219</v>
       </c>
       <c r="N136" t="n">
-        <v>4.134305065728068</v>
+        <v>10.59004209112557</v>
       </c>
       <c r="O136" t="n">
-        <v>-37.72651612431817</v>
+        <v>-14.80677371484319</v>
       </c>
       <c r="P136" t="n">
-        <v>-41.86082119004624</v>
+        <v>-25.39681580596876</v>
       </c>
     </row>
     <row r="137">
@@ -7137,47 +7137,47 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>4.391890048980713</v>
+        <v>4.457189083099365</v>
       </c>
       <c r="E137" t="n">
-        <v>34.61425003591025</v>
+        <v>22.31876597168219</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>38.89500051720609</v>
+        <v>26.45307103741026</v>
       </c>
       <c r="H137" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I137" t="n">
-        <v>-2.844974926161191</v>
+        <v>-17.05563804480998</v>
       </c>
       <c r="J137" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K137" t="b">
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M137" t="n">
-        <v>21.24379007739135</v>
+        <v>-15.40775015263598</v>
       </c>
       <c r="N137" t="n">
-        <v>4.280750481295833</v>
+        <v>4.134305065728068</v>
       </c>
       <c r="O137" t="n">
-        <v>-13.3704599585189</v>
+        <v>-37.72651612431817</v>
       </c>
       <c r="P137" t="n">
-        <v>-17.65121043981474</v>
+        <v>-41.86082119004624</v>
       </c>
     </row>
     <row r="138">
@@ -7187,47 +7187,47 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>5.029120445251465</v>
+        <v>4.391890048980713</v>
       </c>
       <c r="E138" t="n">
-        <v>22.47249647524422</v>
+        <v>34.61425003591025</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>31.50270965721485</v>
+        <v>38.89500051720609</v>
       </c>
       <c r="H138" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I138" t="n">
-        <v>-1.118019310768377</v>
+        <v>-2.844974926161191</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K138" t="b">
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M138" t="n">
-        <v>5.881217389490492</v>
+        <v>21.24379007739135</v>
       </c>
       <c r="N138" t="n">
-        <v>9.03021318197063</v>
+        <v>4.280750481295833</v>
       </c>
       <c r="O138" t="n">
-        <v>-16.59127908575373</v>
+        <v>-13.3704599585189</v>
       </c>
       <c r="P138" t="n">
-        <v>-25.62149226772436</v>
+        <v>-17.65121043981474</v>
       </c>
     </row>
     <row r="139">
@@ -7237,47 +7237,47 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>5.966675758361816</v>
+        <v>5.029120445251465</v>
       </c>
       <c r="E139" t="n">
-        <v>10.47411713201907</v>
+        <v>22.47249647524422</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>18.85617982869401</v>
+        <v>31.50270965721485</v>
       </c>
       <c r="H139" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I139" t="n">
-        <v>-13.31203867389179</v>
+        <v>-1.118019310768377</v>
       </c>
       <c r="J139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K139" t="b">
         <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M139" t="n">
-        <v>-6.389773344992649</v>
+        <v>5.881217389490492</v>
       </c>
       <c r="N139" t="n">
-        <v>8.382062696674941</v>
+        <v>9.03021318197063</v>
       </c>
       <c r="O139" t="n">
-        <v>-16.86389047701172</v>
+        <v>-16.59127908575373</v>
       </c>
       <c r="P139" t="n">
-        <v>-25.24595317368666</v>
+        <v>-25.62149226772436</v>
       </c>
     </row>
     <row r="140">
@@ -7287,47 +7287,47 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1251</v>
+        <v>1228</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>6.436028957366943</v>
+        <v>5.966675758361816</v>
       </c>
       <c r="E140" t="n">
-        <v>18.64250791508336</v>
+        <v>10.47411713201907</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>18.86933047769651</v>
+        <v>18.85617982869401</v>
       </c>
       <c r="H140" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I140" t="n">
-        <v>-7.056222835527236</v>
+        <v>-13.31203867389179</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K140" t="b">
         <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M140" t="n">
-        <v>-4.299850096289407</v>
+        <v>-6.389773344992649</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2268225626131475</v>
+        <v>8.382062696674941</v>
       </c>
       <c r="O140" t="n">
-        <v>-22.94235801137277</v>
+        <v>-16.86389047701172</v>
       </c>
       <c r="P140" t="n">
-        <v>-23.16918057398592</v>
+        <v>-25.24595317368666</v>
       </c>
     </row>
     <row r="141">
@@ -7337,26 +7337,26 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>7.037792205810547</v>
+        <v>6.436028957366943</v>
       </c>
       <c r="E141" t="n">
-        <v>17.10082849345363</v>
+        <v>18.64250791508336</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>25.50265866531606</v>
+        <v>18.86933047769651</v>
       </c>
       <c r="H141" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I141" t="n">
-        <v>-10.63394673055959</v>
+        <v>-7.056222835527236</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
@@ -7365,19 +7365,19 @@
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M141" t="n">
-        <v>7.979378453749902</v>
+        <v>-4.299850096289407</v>
       </c>
       <c r="N141" t="n">
-        <v>8.401830171862429</v>
+        <v>0.2268225626131475</v>
       </c>
       <c r="O141" t="n">
-        <v>-9.121450039703728</v>
+        <v>-22.94235801137277</v>
       </c>
       <c r="P141" t="n">
-        <v>-17.52328021156616</v>
+        <v>-23.16918057398592</v>
       </c>
     </row>
     <row r="142">
@@ -7387,47 +7387,47 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>7.07375955581665</v>
+        <v>7.037792205810547</v>
       </c>
       <c r="E142" t="n">
-        <v>4.6026191612679</v>
+        <v>17.10082849345363</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>24.86452585697086</v>
+        <v>25.50265866531606</v>
       </c>
       <c r="H142" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I142" t="n">
-        <v>-6.243559206845016</v>
+        <v>-10.63394673055959</v>
       </c>
       <c r="J142" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K142" t="b">
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M142" t="n">
-        <v>7.43034479383507</v>
+        <v>7.979378453749902</v>
       </c>
       <c r="N142" t="n">
-        <v>20.26190669570296</v>
+        <v>8.401830171862429</v>
       </c>
       <c r="O142" t="n">
-        <v>2.827725632567169</v>
+        <v>-9.121450039703728</v>
       </c>
       <c r="P142" t="n">
-        <v>-17.43418106313579</v>
+        <v>-17.52328021156616</v>
       </c>
     </row>
     <row r="143">
@@ -7437,47 +7437,47 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>7.409561634063721</v>
+        <v>7.07375955581665</v>
       </c>
       <c r="E143" t="n">
-        <v>9.473834731848822</v>
+        <v>4.6026191612679</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>19.20565299068096</v>
+        <v>24.86452585697086</v>
       </c>
       <c r="H143" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I143" t="n">
-        <v>-5.714285177382491</v>
+        <v>-6.243559206845016</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K143" t="b">
         <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M143" t="n">
-        <v>2.561590766238987</v>
+        <v>7.43034479383507</v>
       </c>
       <c r="N143" t="n">
-        <v>9.731818258832135</v>
+        <v>20.26190669570296</v>
       </c>
       <c r="O143" t="n">
-        <v>-6.912243965609834</v>
+        <v>2.827725632567169</v>
       </c>
       <c r="P143" t="n">
-        <v>-16.64406222444197</v>
+        <v>-17.43418106313579</v>
       </c>
     </row>
     <row r="144">
@@ -7487,47 +7487,47 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>7.708866596221924</v>
+        <v>7.409561634063721</v>
       </c>
       <c r="E144" t="n">
-        <v>6.390377978389481</v>
+        <v>9.473834731848822</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>14.57736645697629</v>
+        <v>19.20565299068096</v>
       </c>
       <c r="H144" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I144" t="n">
-        <v>-9.16942610854551</v>
+        <v>-5.714285177382491</v>
       </c>
       <c r="J144" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K144" t="b">
         <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M144" t="n">
-        <v>-1.420472311388898</v>
+        <v>2.561590766238987</v>
       </c>
       <c r="N144" t="n">
-        <v>8.186988478586812</v>
+        <v>9.731818258832135</v>
       </c>
       <c r="O144" t="n">
-        <v>-7.810850289778379</v>
+        <v>-6.912243965609834</v>
       </c>
       <c r="P144" t="n">
-        <v>-15.99783876836519</v>
+        <v>-16.64406222444197</v>
       </c>
     </row>
     <row r="145">
@@ -7537,47 +7537,47 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1356</v>
+        <v>1306</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>8.366422653198242</v>
+        <v>7.708866596221924</v>
       </c>
       <c r="E145" t="n">
-        <v>13.73882772149922</v>
+        <v>6.390377978389481</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>23.57182146386959</v>
+        <v>14.57736645697629</v>
       </c>
       <c r="H145" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I145" t="n">
-        <v>-9.946221451822721</v>
+        <v>-9.16942610854551</v>
       </c>
       <c r="J145" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="K145" t="b">
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M145" t="n">
-        <v>9.297843455304616</v>
+        <v>-1.420472311388898</v>
       </c>
       <c r="N145" t="n">
-        <v>9.83299374237037</v>
+        <v>8.186988478586812</v>
       </c>
       <c r="O145" t="n">
-        <v>-4.440984266194604</v>
+        <v>-7.810850289778379</v>
       </c>
       <c r="P145" t="n">
-        <v>-14.27397800856497</v>
+        <v>-15.99783876836519</v>
       </c>
     </row>
     <row r="146">
@@ -7587,47 +7587,47 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>9.894973754882812</v>
+        <v>8.366422653198242</v>
       </c>
       <c r="E146" t="n">
-        <v>-19.48706835400484</v>
+        <v>13.73882772149922</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>4.482751748797474</v>
+        <v>23.57182146386959</v>
       </c>
       <c r="H146" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I146" t="n">
-        <v>-29.50211464454577</v>
+        <v>-9.946221451822721</v>
       </c>
       <c r="J146" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="K146" t="b">
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M146" t="n">
-        <v>-1.609174265239939</v>
+        <v>9.297843455304616</v>
       </c>
       <c r="N146" t="n">
-        <v>23.96982010280232</v>
+        <v>9.83299374237037</v>
       </c>
       <c r="O146" t="n">
-        <v>17.8778940887649</v>
+        <v>-4.440984266194604</v>
       </c>
       <c r="P146" t="n">
-        <v>-6.091926014037413</v>
+        <v>-14.27397800856497</v>
       </c>
     </row>
     <row r="147">
@@ -7637,47 +7637,47 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1431</v>
+        <v>1375</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>8.177204132080078</v>
+        <v>9.894973754882812</v>
       </c>
       <c r="E147" t="n">
-        <v>-10.97631676544886</v>
+        <v>-19.48706835400484</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2.097238053660677</v>
+        <v>4.482751748797474</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I147" t="n">
-        <v>-14.96663506369867</v>
+        <v>-29.50211464454577</v>
       </c>
       <c r="J147" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K147" t="b">
         <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M147" t="n">
-        <v>-12.01144217334817</v>
+        <v>-1.609174265239939</v>
       </c>
       <c r="N147" t="n">
-        <v>13.07355481910954</v>
+        <v>23.96982010280232</v>
       </c>
       <c r="O147" t="n">
-        <v>-1.03512540789931</v>
+        <v>17.8778940887649</v>
       </c>
       <c r="P147" t="n">
-        <v>-14.10868022700885</v>
+        <v>-6.091926014037413</v>
       </c>
     </row>
     <row r="148">
@@ -7687,47 +7687,47 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1458</v>
+        <v>1431</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>8.07945728302002</v>
+        <v>8.177204132080078</v>
       </c>
       <c r="E148" t="n">
-        <v>4.200532936729256</v>
+        <v>-10.97631676544886</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>16.98157320671213</v>
+        <v>2.097238053660677</v>
       </c>
       <c r="H148" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-14.57852999418482</v>
+        <v>-14.96663506369867</v>
       </c>
       <c r="J148" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M148" t="n">
-        <v>-2.156871077116476</v>
+        <v>-12.01144217334817</v>
       </c>
       <c r="N148" t="n">
-        <v>12.78104026998287</v>
+        <v>13.07355481910954</v>
       </c>
       <c r="O148" t="n">
-        <v>-6.357404013845732</v>
+        <v>-1.03512540789931</v>
       </c>
       <c r="P148" t="n">
-        <v>-19.1384442838286</v>
+        <v>-14.10868022700885</v>
       </c>
     </row>
     <row r="149">
@@ -7737,47 +7737,47 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1521</v>
+        <v>1458</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>9.453873634338381</v>
+        <v>8.07945728302002</v>
       </c>
       <c r="E149" t="n">
-        <v>15.67077116604735</v>
+        <v>4.200532936729256</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>20.42682052196022</v>
+        <v>16.98157320671213</v>
       </c>
       <c r="H149" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I149" t="n">
-        <v>-6.594830329012711</v>
+        <v>-14.57852999418482</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K149" t="b">
         <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="M149" t="n">
-        <v>2.569205107784071</v>
+        <v>-2.156871077116476</v>
       </c>
       <c r="N149" t="n">
-        <v>4.756049355912868</v>
+        <v>12.78104026998287</v>
       </c>
       <c r="O149" t="n">
-        <v>-13.10156605826328</v>
+        <v>-6.357404013845732</v>
       </c>
       <c r="P149" t="n">
-        <v>-17.85761541417614</v>
+        <v>-19.1384442838286</v>
       </c>
     </row>
     <row r="150">
@@ -7787,47 +7787,47 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>10.37946224212646</v>
+        <v>9.453873634338381</v>
       </c>
       <c r="E150" t="n">
-        <v>-8.403684240266712</v>
+        <v>15.67077116604735</v>
       </c>
       <c r="F150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>9.687758078544999</v>
+        <v>20.42682052196022</v>
       </c>
       <c r="H150" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I150" t="n">
-        <v>-25.77967612569471</v>
+        <v>-6.594830329012711</v>
       </c>
       <c r="J150" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K150" t="b">
         <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M150" t="n">
-        <v>-6.57740437380641</v>
+        <v>2.569205107784071</v>
       </c>
       <c r="N150" t="n">
-        <v>18.09144231881171</v>
+        <v>4.756049355912868</v>
       </c>
       <c r="O150" t="n">
-        <v>1.826279866460301</v>
+        <v>-13.10156605826328</v>
       </c>
       <c r="P150" t="n">
-        <v>-16.26516245235141</v>
+        <v>-17.85761541417614</v>
       </c>
     </row>
     <row r="151">
@@ -7837,47 +7837,47 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1572</v>
+        <v>1533</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>10.73176097869873</v>
+        <v>10.37946224212646</v>
       </c>
       <c r="E151" t="n">
-        <v>-15.71639091813814</v>
+        <v>-8.403684240266712</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>6.086964260529744</v>
+        <v>9.687758078544999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I151" t="n">
-        <v>-28.21615662323861</v>
+        <v>-25.77967612569471</v>
       </c>
       <c r="J151" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="K151" t="b">
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M151" t="n">
-        <v>-14.05144926267657</v>
+        <v>-6.57740437380641</v>
       </c>
       <c r="N151" t="n">
-        <v>21.80335517866789</v>
+        <v>18.09144231881171</v>
       </c>
       <c r="O151" t="n">
-        <v>1.664941655461574</v>
+        <v>1.826279866460301</v>
       </c>
       <c r="P151" t="n">
-        <v>-20.13841352320631</v>
+        <v>-16.26516245235141</v>
       </c>
     </row>
     <row r="152">
@@ -7887,47 +7887,47 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1641</v>
+        <v>1572</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>9.904792785644531</v>
+        <v>10.73176097869873</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.12173625698158</v>
+        <v>-15.71639091813814</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>12.88888410258057</v>
+        <v>6.086964260529744</v>
       </c>
       <c r="H152" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-16.73961836439187</v>
+        <v>-28.21615662323861</v>
       </c>
       <c r="J152" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K152" t="b">
         <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M152" t="n">
-        <v>-9.726333554401686</v>
+        <v>-14.05144926267657</v>
       </c>
       <c r="N152" t="n">
-        <v>15.01062035956215</v>
+        <v>21.80335517866789</v>
       </c>
       <c r="O152" t="n">
-        <v>-7.604597297420106</v>
+        <v>1.664941655461574</v>
       </c>
       <c r="P152" t="n">
-        <v>-22.61521765698226</v>
+        <v>-20.13841352320631</v>
       </c>
     </row>
     <row r="153">
@@ -7937,47 +7937,47 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>10.87326145172119</v>
+        <v>9.904792785644531</v>
       </c>
       <c r="E153" t="n">
-        <v>7.874057323105036</v>
+        <v>-2.12173625698158</v>
       </c>
       <c r="F153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>8.289918798082045</v>
+        <v>12.88888410258057</v>
       </c>
       <c r="H153" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I153" t="n">
-        <v>-24.15552306765888</v>
+        <v>-16.73961836439187</v>
       </c>
       <c r="J153" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K153" t="b">
         <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M153" t="n">
-        <v>-17.76690332388687</v>
+        <v>-9.726333554401686</v>
       </c>
       <c r="N153" t="n">
-        <v>0.4158614749770093</v>
+        <v>15.01062035956215</v>
       </c>
       <c r="O153" t="n">
-        <v>-25.6409606469919</v>
+        <v>-7.604597297420106</v>
       </c>
       <c r="P153" t="n">
-        <v>-26.05682212196891</v>
+        <v>-22.61521765698226</v>
       </c>
     </row>
     <row r="154">
@@ -7987,47 +7987,47 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1690</v>
+        <v>1651</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>10.1739444732666</v>
+        <v>10.87326145172119</v>
       </c>
       <c r="E154" t="n">
-        <v>32.33863140708317</v>
+        <v>7.874057323105036</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>33.98371692071146</v>
+        <v>8.289918798082045</v>
       </c>
       <c r="H154" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I154" t="n">
-        <v>-9.68889043994098</v>
+        <v>-24.15552306765888</v>
       </c>
       <c r="J154" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K154" t="b">
         <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M154" t="n">
-        <v>2.89519630106577</v>
+        <v>-17.76690332388687</v>
       </c>
       <c r="N154" t="n">
-        <v>1.645085513628288</v>
+        <v>0.4158614749770093</v>
       </c>
       <c r="O154" t="n">
-        <v>-29.4434351060174</v>
+        <v>-25.6409606469919</v>
       </c>
       <c r="P154" t="n">
-        <v>-31.08852061964569</v>
+        <v>-26.05682212196891</v>
       </c>
     </row>
     <row r="155">
@@ -8037,47 +8037,47 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1730</v>
+        <v>1690</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>11.89977741241455</v>
+        <v>10.1739444732666</v>
       </c>
       <c r="E155" t="n">
-        <v>21.05939009703697</v>
+        <v>32.33863140708317</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>26.05397502681499</v>
+        <v>33.98371692071146</v>
       </c>
       <c r="H155" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I155" t="n">
-        <v>-8.018503781351676</v>
+        <v>-9.68889043994098</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K155" t="b">
         <v>1</v>
       </c>
       <c r="L155" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M155" t="n">
-        <v>4.490030751362758</v>
+        <v>2.89519630106577</v>
       </c>
       <c r="N155" t="n">
-        <v>4.994584929778011</v>
+        <v>1.645085513628288</v>
       </c>
       <c r="O155" t="n">
-        <v>-16.56935934567421</v>
+        <v>-29.4434351060174</v>
       </c>
       <c r="P155" t="n">
-        <v>-21.56394427545223</v>
+        <v>-31.08852061964569</v>
       </c>
     </row>
     <row r="156">
@@ -8087,47 +8087,47 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>12.72948551177978</v>
+        <v>11.89977741241455</v>
       </c>
       <c r="E156" t="n">
-        <v>19.46925017716361</v>
+        <v>21.05939009703697</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>22.25285936813513</v>
+        <v>26.05397502681499</v>
       </c>
       <c r="H156" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I156" t="n">
-        <v>-5.878001955340471</v>
+        <v>-8.018503781351676</v>
       </c>
       <c r="J156" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K156" t="b">
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M156" t="n">
-        <v>-2.320631371399374</v>
+        <v>4.490030751362758</v>
       </c>
       <c r="N156" t="n">
-        <v>2.783609190971521</v>
+        <v>4.994584929778011</v>
       </c>
       <c r="O156" t="n">
-        <v>-21.78988154856298</v>
+        <v>-16.56935934567421</v>
       </c>
       <c r="P156" t="n">
-        <v>-24.5734907395345</v>
+        <v>-21.56394427545223</v>
       </c>
     </row>
     <row r="157">
@@ -8137,47 +8137,47 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1781</v>
+        <v>1736</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>14.41523170471191</v>
+        <v>12.72948551177978</v>
       </c>
       <c r="E157" t="n">
-        <v>30.14933181682922</v>
+        <v>19.46925017716361</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>35.00968389095147</v>
+        <v>22.25285936813513</v>
       </c>
       <c r="H157" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I157" t="n">
-        <v>-8.187264861673201</v>
+        <v>-5.878001955340471</v>
       </c>
       <c r="J157" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K157" t="b">
         <v>1</v>
       </c>
       <c r="L157" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M157" t="n">
-        <v>-6.393524354459201</v>
+        <v>-2.320631371399374</v>
       </c>
       <c r="N157" t="n">
-        <v>4.86035207412225</v>
+        <v>2.783609190971521</v>
       </c>
       <c r="O157" t="n">
-        <v>-36.54285617128842</v>
+        <v>-21.78988154856298</v>
       </c>
       <c r="P157" t="n">
-        <v>-41.40320824541067</v>
+        <v>-24.5734907395345</v>
       </c>
     </row>
     <row r="158">
@@ -8187,46 +8187,96 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1814</v>
+        <v>1781</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
+        <v>14.41523170471191</v>
+      </c>
+      <c r="E158" t="n">
+        <v>30.14933181682922</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>35.00968389095147</v>
+      </c>
+      <c r="H158" t="n">
+        <v>47</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-8.187264861673201</v>
+      </c>
+      <c r="J158" t="n">
+        <v>21</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>20</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-6.393524354459201</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4.86035207412225</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-36.54285617128842</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-41.40320824541067</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
         <v>18.23585319519043</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E159" t="n">
         <v>35.99582630771211</v>
       </c>
-      <c r="F158" t="b">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
         <v>45.85382763457836</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H159" t="n">
         <v>49</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I159" t="n">
         <v>-5.016007335985726</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J159" t="n">
         <v>3</v>
       </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="n">
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
         <v>45</v>
       </c>
-      <c r="M158" t="n">
+      <c r="M159" t="n">
         <v>25.8144918034913</v>
       </c>
-      <c r="N158" t="n">
+      <c r="N159" t="n">
         <v>9.858001326866244</v>
       </c>
-      <c r="O158" t="n">
+      <c r="O159" t="n">
         <v>-10.18133450422081</v>
       </c>
-      <c r="P158" t="n">
+      <c r="P159" t="n">
         <v>-20.03933583108706</v>
       </c>
     </row>
@@ -8358,40 +8408,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>79.16666666666666</v>
+        <v>78.08219178082192</v>
       </c>
       <c r="D2" t="n">
-        <v>13.82898354989493</v>
+        <v>13.42530553803192</v>
       </c>
       <c r="E2" t="n">
-        <v>15.97316875945789</v>
+        <v>15.41192049502109</v>
       </c>
       <c r="F2" t="n">
-        <v>21.36187526967388</v>
+        <v>21.49157010896035</v>
       </c>
       <c r="G2" t="n">
-        <v>25.32175873931784</v>
+        <v>25.01116405447531</v>
       </c>
       <c r="H2" t="n">
-        <v>-13.34885742669853</v>
+        <v>-13.57735056076157</v>
       </c>
       <c r="I2" t="n">
-        <v>11.58700846935344</v>
+        <v>11.6901357786809</v>
       </c>
       <c r="J2" t="n">
-        <v>93.05555555555556</v>
+        <v>93.15068493150685</v>
       </c>
       <c r="K2" t="n">
-        <v>22.50746268656716</v>
+        <v>22.41176470588235</v>
       </c>
       <c r="L2" t="n">
-        <v>17.91044776119403</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="M2" t="n">
-        <v>-12.17629545246455</v>
+        <v>-12.06759234089443</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
